--- a/測定結果.xlsx
+++ b/測定結果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\DS220jNAS\☆Auto Backup\学会\論文プロジェクト\WEBDB夏2023\OneDrive_1_2023-8-14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC5B4D7-B75C-4290-8E62-47C3A3A32560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D671E0-FA5B-49F1-97B4-E079BDF7D611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="19740" yWindow="3984" windowWidth="24840" windowHeight="20640" firstSheet="1" activeTab="2" xr2:uid="{83EF0417-55A8-49D1-AFD2-1E78519C1B4D}"/>
+    <workbookView xWindow="11244" yWindow="1260" windowWidth="28380" windowHeight="20640" xr2:uid="{83EF0417-55A8-49D1-AFD2-1E78519C1B4D}"/>
   </bookViews>
   <sheets>
     <sheet name="1. 測定の概要" sheetId="15" r:id="rId1"/>
@@ -3011,31 +3011,31 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3065,44 +3065,44 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -47045,9 +47045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A666A95-55D5-4BFB-B12E-BBFF004D0109}">
   <dimension ref="A1:AA72"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:N15"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.59765625" defaultRowHeight="21.6" customHeight="1"/>
   <sheetData>
@@ -48660,12 +48658,12 @@
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
-      <c r="F4" s="118" t="s">
+      <c r="F4" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="120"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="102"/>
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
       <c r="L4" s="21"/>
@@ -48680,10 +48678,10 @@
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="123"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="105"/>
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
       <c r="L5" s="21"/>
@@ -48698,10 +48696,10 @@
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="126"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="108"/>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
@@ -48773,20 +48771,20 @@
     </row>
     <row r="10" spans="1:17">
       <c r="B10" s="21"/>
-      <c r="C10" s="118" t="s">
+      <c r="C10" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="120"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="102"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
-      <c r="I10" s="118" t="s">
+      <c r="I10" s="100" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="120"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="102"/>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
@@ -48795,16 +48793,16 @@
     </row>
     <row r="11" spans="1:17">
       <c r="B11" s="21"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="123"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="105"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="123"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="105"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="21"/>
@@ -48813,16 +48811,16 @@
     </row>
     <row r="12" spans="1:17">
       <c r="B12" s="21"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="126"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="108"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="125"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="126"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="108"/>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="21"/>
@@ -48983,12 +48981,12 @@
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
-      <c r="F24" s="118" t="s">
+      <c r="F24" s="100" t="s">
         <v>93</v>
       </c>
-      <c r="G24" s="119"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="120"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="102"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
       <c r="L24" s="21"/>
@@ -49002,10 +49000,10 @@
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="122"/>
-      <c r="I25" s="123"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="105"/>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
       <c r="L25" s="21"/>
@@ -49019,10 +49017,10 @@
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
-      <c r="F26" s="124"/>
-      <c r="G26" s="125"/>
-      <c r="H26" s="125"/>
-      <c r="I26" s="126"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="108"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
@@ -49090,20 +49088,20 @@
       <c r="Q29" s="21"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="C30" s="118" t="s">
+      <c r="C30" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="120"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="102"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
-      <c r="I30" s="118" t="s">
+      <c r="I30" s="100" t="s">
         <v>94</v>
       </c>
-      <c r="J30" s="119"/>
-      <c r="K30" s="119"/>
-      <c r="L30" s="120"/>
+      <c r="J30" s="101"/>
+      <c r="K30" s="101"/>
+      <c r="L30" s="102"/>
       <c r="M30" s="21"/>
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
@@ -49111,16 +49109,16 @@
       <c r="Q30" s="21"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="C31" s="121"/>
-      <c r="D31" s="122"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="123"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="105"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="122"/>
-      <c r="K31" s="122"/>
-      <c r="L31" s="123"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="104"/>
+      <c r="L31" s="105"/>
       <c r="M31" s="21"/>
       <c r="N31" s="21"/>
       <c r="O31" s="21"/>
@@ -49128,16 +49126,16 @@
       <c r="Q31" s="21"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="C32" s="124"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="125"/>
-      <c r="F32" s="126"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="108"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
-      <c r="I32" s="124"/>
-      <c r="J32" s="125"/>
-      <c r="K32" s="125"/>
-      <c r="L32" s="126"/>
+      <c r="I32" s="106"/>
+      <c r="J32" s="107"/>
+      <c r="K32" s="107"/>
+      <c r="L32" s="108"/>
       <c r="M32" s="21"/>
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
@@ -49294,12 +49292,12 @@
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
-      <c r="F44" s="118" t="s">
+      <c r="F44" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="G44" s="119"/>
-      <c r="H44" s="119"/>
-      <c r="I44" s="120"/>
+      <c r="G44" s="101"/>
+      <c r="H44" s="101"/>
+      <c r="I44" s="102"/>
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
       <c r="L44" s="21"/>
@@ -49313,10 +49311,10 @@
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
-      <c r="F45" s="121"/>
-      <c r="G45" s="122"/>
-      <c r="H45" s="122"/>
-      <c r="I45" s="123"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="104"/>
+      <c r="I45" s="105"/>
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
@@ -49330,10 +49328,10 @@
       <c r="C46" s="21"/>
       <c r="D46" s="21"/>
       <c r="E46" s="21"/>
-      <c r="F46" s="124"/>
-      <c r="G46" s="125"/>
-      <c r="H46" s="125"/>
-      <c r="I46" s="126"/>
+      <c r="F46" s="106"/>
+      <c r="G46" s="107"/>
+      <c r="H46" s="107"/>
+      <c r="I46" s="108"/>
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
       <c r="L46" s="21"/>
@@ -49401,20 +49399,20 @@
       <c r="Q49" s="21"/>
     </row>
     <row r="50" spans="1:17">
-      <c r="C50" s="118" t="s">
+      <c r="C50" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="119"/>
-      <c r="E50" s="119"/>
-      <c r="F50" s="120"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="101"/>
+      <c r="F50" s="102"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
-      <c r="I50" s="118" t="s">
+      <c r="I50" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="J50" s="119"/>
-      <c r="K50" s="119"/>
-      <c r="L50" s="120"/>
+      <c r="J50" s="101"/>
+      <c r="K50" s="101"/>
+      <c r="L50" s="102"/>
       <c r="M50" s="21"/>
       <c r="N50" s="21"/>
       <c r="O50" s="21"/>
@@ -49422,16 +49420,16 @@
       <c r="Q50" s="21"/>
     </row>
     <row r="51" spans="1:17">
-      <c r="C51" s="121"/>
-      <c r="D51" s="122"/>
-      <c r="E51" s="122"/>
-      <c r="F51" s="123"/>
+      <c r="C51" s="103"/>
+      <c r="D51" s="104"/>
+      <c r="E51" s="104"/>
+      <c r="F51" s="105"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
-      <c r="I51" s="121"/>
-      <c r="J51" s="122"/>
-      <c r="K51" s="122"/>
-      <c r="L51" s="123"/>
+      <c r="I51" s="103"/>
+      <c r="J51" s="104"/>
+      <c r="K51" s="104"/>
+      <c r="L51" s="105"/>
       <c r="M51" s="21"/>
       <c r="N51" s="21"/>
       <c r="O51" s="21"/>
@@ -49439,16 +49437,16 @@
       <c r="Q51" s="21"/>
     </row>
     <row r="52" spans="1:17">
-      <c r="C52" s="124"/>
-      <c r="D52" s="125"/>
-      <c r="E52" s="125"/>
-      <c r="F52" s="126"/>
+      <c r="C52" s="106"/>
+      <c r="D52" s="107"/>
+      <c r="E52" s="107"/>
+      <c r="F52" s="108"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
-      <c r="I52" s="124"/>
-      <c r="J52" s="125"/>
-      <c r="K52" s="125"/>
-      <c r="L52" s="126"/>
+      <c r="I52" s="106"/>
+      <c r="J52" s="107"/>
+      <c r="K52" s="107"/>
+      <c r="L52" s="108"/>
       <c r="M52" s="21"/>
       <c r="N52" s="21"/>
       <c r="O52" s="21"/>
@@ -49591,24 +49589,24 @@
       <c r="P63" s="21"/>
     </row>
     <row r="64" spans="1:17">
-      <c r="M64" s="118" t="s">
+      <c r="M64" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="N64" s="119"/>
-      <c r="O64" s="119"/>
-      <c r="P64" s="120"/>
+      <c r="N64" s="101"/>
+      <c r="O64" s="101"/>
+      <c r="P64" s="102"/>
     </row>
     <row r="65" spans="3:16">
-      <c r="M65" s="121"/>
-      <c r="N65" s="122"/>
-      <c r="O65" s="122"/>
-      <c r="P65" s="123"/>
+      <c r="M65" s="103"/>
+      <c r="N65" s="104"/>
+      <c r="O65" s="104"/>
+      <c r="P65" s="105"/>
     </row>
     <row r="66" spans="3:16">
-      <c r="M66" s="124"/>
-      <c r="N66" s="125"/>
-      <c r="O66" s="125"/>
-      <c r="P66" s="126"/>
+      <c r="M66" s="106"/>
+      <c r="N66" s="107"/>
+      <c r="O66" s="107"/>
+      <c r="P66" s="108"/>
     </row>
     <row r="67" spans="3:16">
       <c r="E67" s="60"/>
@@ -49648,38 +49646,38 @@
       <c r="P69" s="21"/>
     </row>
     <row r="70" spans="3:16">
-      <c r="C70" s="118" t="s">
+      <c r="C70" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="D70" s="119"/>
-      <c r="E70" s="119"/>
-      <c r="F70" s="120"/>
-      <c r="M70" s="118" t="s">
+      <c r="D70" s="101"/>
+      <c r="E70" s="101"/>
+      <c r="F70" s="102"/>
+      <c r="M70" s="100" t="s">
         <v>127</v>
       </c>
-      <c r="N70" s="119"/>
-      <c r="O70" s="119"/>
-      <c r="P70" s="120"/>
+      <c r="N70" s="101"/>
+      <c r="O70" s="101"/>
+      <c r="P70" s="102"/>
     </row>
     <row r="71" spans="3:16">
-      <c r="C71" s="121"/>
-      <c r="D71" s="122"/>
-      <c r="E71" s="122"/>
-      <c r="F71" s="123"/>
-      <c r="M71" s="121"/>
-      <c r="N71" s="122"/>
-      <c r="O71" s="122"/>
-      <c r="P71" s="123"/>
+      <c r="C71" s="103"/>
+      <c r="D71" s="104"/>
+      <c r="E71" s="104"/>
+      <c r="F71" s="105"/>
+      <c r="M71" s="103"/>
+      <c r="N71" s="104"/>
+      <c r="O71" s="104"/>
+      <c r="P71" s="105"/>
     </row>
     <row r="72" spans="3:16">
-      <c r="C72" s="124"/>
-      <c r="D72" s="125"/>
-      <c r="E72" s="125"/>
-      <c r="F72" s="126"/>
-      <c r="M72" s="124"/>
-      <c r="N72" s="125"/>
-      <c r="O72" s="125"/>
-      <c r="P72" s="126"/>
+      <c r="C72" s="106"/>
+      <c r="D72" s="107"/>
+      <c r="E72" s="107"/>
+      <c r="F72" s="108"/>
+      <c r="M72" s="106"/>
+      <c r="N72" s="107"/>
+      <c r="O72" s="107"/>
+      <c r="P72" s="108"/>
     </row>
     <row r="73" spans="3:16">
       <c r="C73" s="21"/>
@@ -49717,48 +49715,48 @@
       <c r="N75" s="57"/>
     </row>
     <row r="76" spans="3:16" ht="18" customHeight="1">
-      <c r="C76" s="100" t="s">
+      <c r="C76" s="118" t="s">
         <v>111</v>
       </c>
-      <c r="D76" s="101"/>
-      <c r="E76" s="101"/>
-      <c r="F76" s="102"/>
-      <c r="M76" s="100" t="s">
+      <c r="D76" s="119"/>
+      <c r="E76" s="119"/>
+      <c r="F76" s="120"/>
+      <c r="M76" s="118" t="s">
         <v>115</v>
       </c>
-      <c r="N76" s="101"/>
-      <c r="O76" s="101"/>
-      <c r="P76" s="102"/>
+      <c r="N76" s="119"/>
+      <c r="O76" s="119"/>
+      <c r="P76" s="120"/>
     </row>
     <row r="77" spans="3:16">
-      <c r="C77" s="103"/>
-      <c r="D77" s="104"/>
-      <c r="E77" s="104"/>
-      <c r="F77" s="105"/>
-      <c r="M77" s="103"/>
-      <c r="N77" s="104"/>
-      <c r="O77" s="104"/>
-      <c r="P77" s="105"/>
+      <c r="C77" s="121"/>
+      <c r="D77" s="122"/>
+      <c r="E77" s="122"/>
+      <c r="F77" s="123"/>
+      <c r="M77" s="121"/>
+      <c r="N77" s="122"/>
+      <c r="O77" s="122"/>
+      <c r="P77" s="123"/>
     </row>
     <row r="78" spans="3:16">
-      <c r="C78" s="103"/>
-      <c r="D78" s="104"/>
-      <c r="E78" s="104"/>
-      <c r="F78" s="105"/>
-      <c r="M78" s="103"/>
-      <c r="N78" s="104"/>
-      <c r="O78" s="104"/>
-      <c r="P78" s="105"/>
+      <c r="C78" s="121"/>
+      <c r="D78" s="122"/>
+      <c r="E78" s="122"/>
+      <c r="F78" s="123"/>
+      <c r="M78" s="121"/>
+      <c r="N78" s="122"/>
+      <c r="O78" s="122"/>
+      <c r="P78" s="123"/>
     </row>
     <row r="79" spans="3:16">
-      <c r="C79" s="106"/>
-      <c r="D79" s="107"/>
-      <c r="E79" s="107"/>
-      <c r="F79" s="108"/>
-      <c r="M79" s="106"/>
-      <c r="N79" s="107"/>
-      <c r="O79" s="107"/>
-      <c r="P79" s="108"/>
+      <c r="C79" s="124"/>
+      <c r="D79" s="125"/>
+      <c r="E79" s="125"/>
+      <c r="F79" s="126"/>
+      <c r="M79" s="124"/>
+      <c r="N79" s="125"/>
+      <c r="O79" s="125"/>
+      <c r="P79" s="126"/>
     </row>
     <row r="80" spans="3:16">
       <c r="D80" s="55"/>
@@ -49810,72 +49808,72 @@
     <row r="84" spans="3:25">
       <c r="C84" s="21"/>
       <c r="D84" s="56"/>
-      <c r="H84" s="100" t="s">
+      <c r="H84" s="118" t="s">
         <v>128</v>
       </c>
-      <c r="I84" s="101"/>
-      <c r="J84" s="101"/>
-      <c r="K84" s="102"/>
-      <c r="M84" s="100" t="s">
+      <c r="I84" s="119"/>
+      <c r="J84" s="119"/>
+      <c r="K84" s="120"/>
+      <c r="M84" s="118" t="s">
         <v>129</v>
       </c>
-      <c r="N84" s="101"/>
-      <c r="O84" s="101"/>
-      <c r="P84" s="102"/>
-      <c r="S84" s="100" t="s">
+      <c r="N84" s="119"/>
+      <c r="O84" s="119"/>
+      <c r="P84" s="120"/>
+      <c r="S84" s="118" t="s">
         <v>130</v>
       </c>
-      <c r="T84" s="101"/>
-      <c r="U84" s="101"/>
-      <c r="V84" s="102"/>
+      <c r="T84" s="119"/>
+      <c r="U84" s="119"/>
+      <c r="V84" s="120"/>
     </row>
     <row r="85" spans="3:25">
       <c r="C85" s="21"/>
       <c r="D85" s="56"/>
-      <c r="H85" s="103"/>
-      <c r="I85" s="104"/>
-      <c r="J85" s="104"/>
-      <c r="K85" s="105"/>
-      <c r="M85" s="103"/>
-      <c r="N85" s="104"/>
-      <c r="O85" s="104"/>
-      <c r="P85" s="105"/>
-      <c r="S85" s="103"/>
-      <c r="T85" s="104"/>
-      <c r="U85" s="104"/>
-      <c r="V85" s="105"/>
+      <c r="H85" s="121"/>
+      <c r="I85" s="122"/>
+      <c r="J85" s="122"/>
+      <c r="K85" s="123"/>
+      <c r="M85" s="121"/>
+      <c r="N85" s="122"/>
+      <c r="O85" s="122"/>
+      <c r="P85" s="123"/>
+      <c r="S85" s="121"/>
+      <c r="T85" s="122"/>
+      <c r="U85" s="122"/>
+      <c r="V85" s="123"/>
     </row>
     <row r="86" spans="3:25">
       <c r="C86" s="21"/>
       <c r="D86" s="56"/>
-      <c r="H86" s="103"/>
-      <c r="I86" s="104"/>
-      <c r="J86" s="104"/>
-      <c r="K86" s="105"/>
-      <c r="M86" s="103"/>
-      <c r="N86" s="104"/>
-      <c r="O86" s="104"/>
-      <c r="P86" s="105"/>
-      <c r="S86" s="103"/>
-      <c r="T86" s="104"/>
-      <c r="U86" s="104"/>
-      <c r="V86" s="105"/>
+      <c r="H86" s="121"/>
+      <c r="I86" s="122"/>
+      <c r="J86" s="122"/>
+      <c r="K86" s="123"/>
+      <c r="M86" s="121"/>
+      <c r="N86" s="122"/>
+      <c r="O86" s="122"/>
+      <c r="P86" s="123"/>
+      <c r="S86" s="121"/>
+      <c r="T86" s="122"/>
+      <c r="U86" s="122"/>
+      <c r="V86" s="123"/>
     </row>
     <row r="87" spans="3:25">
       <c r="C87" s="21"/>
       <c r="D87" s="56"/>
-      <c r="H87" s="106"/>
-      <c r="I87" s="107"/>
-      <c r="J87" s="107"/>
-      <c r="K87" s="108"/>
-      <c r="M87" s="106"/>
-      <c r="N87" s="107"/>
-      <c r="O87" s="107"/>
-      <c r="P87" s="108"/>
-      <c r="S87" s="106"/>
-      <c r="T87" s="107"/>
-      <c r="U87" s="107"/>
-      <c r="V87" s="108"/>
+      <c r="H87" s="124"/>
+      <c r="I87" s="125"/>
+      <c r="J87" s="125"/>
+      <c r="K87" s="126"/>
+      <c r="M87" s="124"/>
+      <c r="N87" s="125"/>
+      <c r="O87" s="125"/>
+      <c r="P87" s="126"/>
+      <c r="S87" s="124"/>
+      <c r="T87" s="125"/>
+      <c r="U87" s="125"/>
+      <c r="V87" s="126"/>
     </row>
     <row r="88" spans="3:25">
       <c r="C88" s="21"/>
@@ -50057,30 +50055,30 @@
       <c r="C101" s="21"/>
       <c r="D101" s="21"/>
       <c r="E101" s="21"/>
-      <c r="Q101" s="118" t="s">
+      <c r="Q101" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="R101" s="119"/>
-      <c r="S101" s="119"/>
-      <c r="T101" s="120"/>
+      <c r="R101" s="101"/>
+      <c r="S101" s="101"/>
+      <c r="T101" s="102"/>
     </row>
     <row r="102" spans="1:32">
       <c r="C102" s="21"/>
       <c r="D102" s="21"/>
       <c r="E102" s="21"/>
-      <c r="Q102" s="121"/>
-      <c r="R102" s="122"/>
-      <c r="S102" s="122"/>
-      <c r="T102" s="123"/>
+      <c r="Q102" s="103"/>
+      <c r="R102" s="104"/>
+      <c r="S102" s="104"/>
+      <c r="T102" s="105"/>
     </row>
     <row r="103" spans="1:32">
       <c r="C103" s="21"/>
       <c r="D103" s="21"/>
       <c r="E103" s="21"/>
-      <c r="Q103" s="124"/>
-      <c r="R103" s="125"/>
-      <c r="S103" s="125"/>
-      <c r="T103" s="126"/>
+      <c r="Q103" s="106"/>
+      <c r="R103" s="107"/>
+      <c r="S103" s="107"/>
+      <c r="T103" s="108"/>
     </row>
     <row r="104" spans="1:32">
       <c r="C104" s="21"/>
@@ -50133,40 +50131,40 @@
     </row>
     <row r="107" spans="1:32">
       <c r="G107" s="21"/>
-      <c r="H107" s="118" t="s">
+      <c r="H107" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="I107" s="119"/>
-      <c r="J107" s="119"/>
-      <c r="K107" s="120"/>
-      <c r="Y107" s="118" t="s">
+      <c r="I107" s="101"/>
+      <c r="J107" s="101"/>
+      <c r="K107" s="102"/>
+      <c r="Y107" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="Z107" s="119"/>
-      <c r="AA107" s="119"/>
-      <c r="AB107" s="120"/>
+      <c r="Z107" s="101"/>
+      <c r="AA107" s="101"/>
+      <c r="AB107" s="102"/>
     </row>
     <row r="108" spans="1:32">
       <c r="G108" s="21"/>
-      <c r="H108" s="121"/>
-      <c r="I108" s="122"/>
-      <c r="J108" s="122"/>
-      <c r="K108" s="123"/>
-      <c r="Y108" s="121"/>
-      <c r="Z108" s="122"/>
-      <c r="AA108" s="122"/>
-      <c r="AB108" s="123"/>
+      <c r="H108" s="103"/>
+      <c r="I108" s="104"/>
+      <c r="J108" s="104"/>
+      <c r="K108" s="105"/>
+      <c r="Y108" s="103"/>
+      <c r="Z108" s="104"/>
+      <c r="AA108" s="104"/>
+      <c r="AB108" s="105"/>
     </row>
     <row r="109" spans="1:32">
       <c r="G109" s="21"/>
-      <c r="H109" s="124"/>
-      <c r="I109" s="125"/>
-      <c r="J109" s="125"/>
-      <c r="K109" s="126"/>
-      <c r="Y109" s="124"/>
-      <c r="Z109" s="125"/>
-      <c r="AA109" s="125"/>
-      <c r="AB109" s="126"/>
+      <c r="H109" s="106"/>
+      <c r="I109" s="107"/>
+      <c r="J109" s="107"/>
+      <c r="K109" s="108"/>
+      <c r="Y109" s="106"/>
+      <c r="Z109" s="107"/>
+      <c r="AA109" s="107"/>
+      <c r="AB109" s="108"/>
     </row>
     <row r="110" spans="1:32">
       <c r="E110" s="60"/>
@@ -50239,120 +50237,120 @@
       <c r="AF112" s="57"/>
     </row>
     <row r="113" spans="3:37" ht="18" customHeight="1">
-      <c r="C113" s="100" t="s">
+      <c r="C113" s="118" t="s">
         <v>111</v>
       </c>
-      <c r="D113" s="101"/>
-      <c r="E113" s="101"/>
-      <c r="F113" s="102"/>
-      <c r="H113" s="100" t="s">
+      <c r="D113" s="119"/>
+      <c r="E113" s="119"/>
+      <c r="F113" s="120"/>
+      <c r="H113" s="118" t="s">
         <v>112</v>
       </c>
-      <c r="I113" s="101"/>
-      <c r="J113" s="101"/>
-      <c r="K113" s="102"/>
-      <c r="N113" s="100" t="s">
+      <c r="I113" s="119"/>
+      <c r="J113" s="119"/>
+      <c r="K113" s="120"/>
+      <c r="N113" s="118" t="s">
         <v>109</v>
       </c>
-      <c r="O113" s="101"/>
-      <c r="P113" s="101"/>
-      <c r="Q113" s="102"/>
-      <c r="T113" s="100" t="s">
+      <c r="O113" s="119"/>
+      <c r="P113" s="119"/>
+      <c r="Q113" s="120"/>
+      <c r="T113" s="118" t="s">
         <v>115</v>
       </c>
-      <c r="U113" s="101"/>
-      <c r="V113" s="101"/>
-      <c r="W113" s="102"/>
-      <c r="Y113" s="100" t="s">
+      <c r="U113" s="119"/>
+      <c r="V113" s="119"/>
+      <c r="W113" s="120"/>
+      <c r="Y113" s="118" t="s">
         <v>116</v>
       </c>
-      <c r="Z113" s="101"/>
-      <c r="AA113" s="101"/>
-      <c r="AB113" s="102"/>
-      <c r="AE113" s="100" t="s">
+      <c r="Z113" s="119"/>
+      <c r="AA113" s="119"/>
+      <c r="AB113" s="120"/>
+      <c r="AE113" s="118" t="s">
         <v>117</v>
       </c>
-      <c r="AF113" s="101"/>
-      <c r="AG113" s="101"/>
-      <c r="AH113" s="102"/>
+      <c r="AF113" s="119"/>
+      <c r="AG113" s="119"/>
+      <c r="AH113" s="120"/>
     </row>
     <row r="114" spans="3:37">
-      <c r="C114" s="103"/>
-      <c r="D114" s="104"/>
-      <c r="E114" s="104"/>
-      <c r="F114" s="105"/>
-      <c r="H114" s="103"/>
-      <c r="I114" s="104"/>
-      <c r="J114" s="104"/>
-      <c r="K114" s="105"/>
-      <c r="N114" s="103"/>
-      <c r="O114" s="104"/>
-      <c r="P114" s="104"/>
-      <c r="Q114" s="105"/>
-      <c r="T114" s="103"/>
-      <c r="U114" s="104"/>
-      <c r="V114" s="104"/>
-      <c r="W114" s="105"/>
-      <c r="Y114" s="103"/>
-      <c r="Z114" s="104"/>
-      <c r="AA114" s="104"/>
-      <c r="AB114" s="105"/>
-      <c r="AE114" s="103"/>
-      <c r="AF114" s="104"/>
-      <c r="AG114" s="104"/>
-      <c r="AH114" s="105"/>
+      <c r="C114" s="121"/>
+      <c r="D114" s="122"/>
+      <c r="E114" s="122"/>
+      <c r="F114" s="123"/>
+      <c r="H114" s="121"/>
+      <c r="I114" s="122"/>
+      <c r="J114" s="122"/>
+      <c r="K114" s="123"/>
+      <c r="N114" s="121"/>
+      <c r="O114" s="122"/>
+      <c r="P114" s="122"/>
+      <c r="Q114" s="123"/>
+      <c r="T114" s="121"/>
+      <c r="U114" s="122"/>
+      <c r="V114" s="122"/>
+      <c r="W114" s="123"/>
+      <c r="Y114" s="121"/>
+      <c r="Z114" s="122"/>
+      <c r="AA114" s="122"/>
+      <c r="AB114" s="123"/>
+      <c r="AE114" s="121"/>
+      <c r="AF114" s="122"/>
+      <c r="AG114" s="122"/>
+      <c r="AH114" s="123"/>
     </row>
     <row r="115" spans="3:37">
-      <c r="C115" s="103"/>
-      <c r="D115" s="104"/>
-      <c r="E115" s="104"/>
-      <c r="F115" s="105"/>
-      <c r="H115" s="103"/>
-      <c r="I115" s="104"/>
-      <c r="J115" s="104"/>
-      <c r="K115" s="105"/>
-      <c r="N115" s="103"/>
-      <c r="O115" s="104"/>
-      <c r="P115" s="104"/>
-      <c r="Q115" s="105"/>
-      <c r="T115" s="103"/>
-      <c r="U115" s="104"/>
-      <c r="V115" s="104"/>
-      <c r="W115" s="105"/>
-      <c r="Y115" s="103"/>
-      <c r="Z115" s="104"/>
-      <c r="AA115" s="104"/>
-      <c r="AB115" s="105"/>
-      <c r="AE115" s="103"/>
-      <c r="AF115" s="104"/>
-      <c r="AG115" s="104"/>
-      <c r="AH115" s="105"/>
+      <c r="C115" s="121"/>
+      <c r="D115" s="122"/>
+      <c r="E115" s="122"/>
+      <c r="F115" s="123"/>
+      <c r="H115" s="121"/>
+      <c r="I115" s="122"/>
+      <c r="J115" s="122"/>
+      <c r="K115" s="123"/>
+      <c r="N115" s="121"/>
+      <c r="O115" s="122"/>
+      <c r="P115" s="122"/>
+      <c r="Q115" s="123"/>
+      <c r="T115" s="121"/>
+      <c r="U115" s="122"/>
+      <c r="V115" s="122"/>
+      <c r="W115" s="123"/>
+      <c r="Y115" s="121"/>
+      <c r="Z115" s="122"/>
+      <c r="AA115" s="122"/>
+      <c r="AB115" s="123"/>
+      <c r="AE115" s="121"/>
+      <c r="AF115" s="122"/>
+      <c r="AG115" s="122"/>
+      <c r="AH115" s="123"/>
     </row>
     <row r="116" spans="3:37">
-      <c r="C116" s="106"/>
-      <c r="D116" s="107"/>
-      <c r="E116" s="107"/>
-      <c r="F116" s="108"/>
-      <c r="H116" s="106"/>
-      <c r="I116" s="107"/>
-      <c r="J116" s="107"/>
-      <c r="K116" s="108"/>
-      <c r="N116" s="106"/>
-      <c r="O116" s="107"/>
-      <c r="P116" s="107"/>
-      <c r="Q116" s="108"/>
-      <c r="T116" s="106"/>
-      <c r="U116" s="107"/>
-      <c r="V116" s="107"/>
-      <c r="W116" s="108"/>
-      <c r="Y116" s="106"/>
-      <c r="Z116" s="107"/>
-      <c r="AA116" s="107"/>
-      <c r="AB116" s="108"/>
-      <c r="AE116" s="106"/>
-      <c r="AF116" s="107"/>
-      <c r="AG116" s="107"/>
-      <c r="AH116" s="108"/>
+      <c r="C116" s="124"/>
+      <c r="D116" s="125"/>
+      <c r="E116" s="125"/>
+      <c r="F116" s="126"/>
+      <c r="H116" s="124"/>
+      <c r="I116" s="125"/>
+      <c r="J116" s="125"/>
+      <c r="K116" s="126"/>
+      <c r="N116" s="124"/>
+      <c r="O116" s="125"/>
+      <c r="P116" s="125"/>
+      <c r="Q116" s="126"/>
+      <c r="T116" s="124"/>
+      <c r="U116" s="125"/>
+      <c r="V116" s="125"/>
+      <c r="W116" s="126"/>
+      <c r="Y116" s="124"/>
+      <c r="Z116" s="125"/>
+      <c r="AA116" s="125"/>
+      <c r="AB116" s="126"/>
+      <c r="AE116" s="124"/>
+      <c r="AF116" s="125"/>
+      <c r="AG116" s="125"/>
+      <c r="AH116" s="126"/>
     </row>
     <row r="117" spans="3:37">
       <c r="D117" s="55"/>
@@ -50462,24 +50460,24 @@
       <c r="I124" s="56"/>
       <c r="N124" s="21"/>
       <c r="O124" s="56"/>
-      <c r="T124" s="100" t="s">
+      <c r="T124" s="118" t="s">
         <v>119</v>
       </c>
-      <c r="U124" s="101"/>
-      <c r="V124" s="101"/>
-      <c r="W124" s="102"/>
-      <c r="Y124" s="100" t="s">
+      <c r="U124" s="119"/>
+      <c r="V124" s="119"/>
+      <c r="W124" s="120"/>
+      <c r="Y124" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="Z124" s="101"/>
-      <c r="AA124" s="101"/>
-      <c r="AB124" s="102"/>
-      <c r="AE124" s="100" t="s">
+      <c r="Z124" s="119"/>
+      <c r="AA124" s="119"/>
+      <c r="AB124" s="120"/>
+      <c r="AE124" s="118" t="s">
         <v>121</v>
       </c>
-      <c r="AF124" s="101"/>
-      <c r="AG124" s="101"/>
-      <c r="AH124" s="102"/>
+      <c r="AF124" s="119"/>
+      <c r="AG124" s="119"/>
+      <c r="AH124" s="120"/>
       <c r="AK124" s="21"/>
     </row>
     <row r="125" spans="3:37">
@@ -50488,18 +50486,18 @@
       <c r="I125" s="56"/>
       <c r="N125" s="21"/>
       <c r="O125" s="56"/>
-      <c r="T125" s="103"/>
-      <c r="U125" s="104"/>
-      <c r="V125" s="104"/>
-      <c r="W125" s="105"/>
-      <c r="Y125" s="103"/>
-      <c r="Z125" s="104"/>
-      <c r="AA125" s="104"/>
-      <c r="AB125" s="105"/>
-      <c r="AE125" s="103"/>
-      <c r="AF125" s="104"/>
-      <c r="AG125" s="104"/>
-      <c r="AH125" s="105"/>
+      <c r="T125" s="121"/>
+      <c r="U125" s="122"/>
+      <c r="V125" s="122"/>
+      <c r="W125" s="123"/>
+      <c r="Y125" s="121"/>
+      <c r="Z125" s="122"/>
+      <c r="AA125" s="122"/>
+      <c r="AB125" s="123"/>
+      <c r="AE125" s="121"/>
+      <c r="AF125" s="122"/>
+      <c r="AG125" s="122"/>
+      <c r="AH125" s="123"/>
       <c r="AK125" s="21"/>
     </row>
     <row r="126" spans="3:37">
@@ -50508,18 +50506,18 @@
       <c r="I126" s="56"/>
       <c r="N126" s="21"/>
       <c r="O126" s="56"/>
-      <c r="T126" s="103"/>
-      <c r="U126" s="104"/>
-      <c r="V126" s="104"/>
-      <c r="W126" s="105"/>
-      <c r="Y126" s="103"/>
-      <c r="Z126" s="104"/>
-      <c r="AA126" s="104"/>
-      <c r="AB126" s="105"/>
-      <c r="AE126" s="103"/>
-      <c r="AF126" s="104"/>
-      <c r="AG126" s="104"/>
-      <c r="AH126" s="105"/>
+      <c r="T126" s="121"/>
+      <c r="U126" s="122"/>
+      <c r="V126" s="122"/>
+      <c r="W126" s="123"/>
+      <c r="Y126" s="121"/>
+      <c r="Z126" s="122"/>
+      <c r="AA126" s="122"/>
+      <c r="AB126" s="123"/>
+      <c r="AE126" s="121"/>
+      <c r="AF126" s="122"/>
+      <c r="AG126" s="122"/>
+      <c r="AH126" s="123"/>
       <c r="AK126" s="21"/>
     </row>
     <row r="127" spans="3:37">
@@ -50528,18 +50526,18 @@
       <c r="I127" s="56"/>
       <c r="N127" s="21"/>
       <c r="O127" s="56"/>
-      <c r="T127" s="106"/>
-      <c r="U127" s="107"/>
-      <c r="V127" s="107"/>
-      <c r="W127" s="108"/>
-      <c r="Y127" s="106"/>
-      <c r="Z127" s="107"/>
-      <c r="AA127" s="107"/>
-      <c r="AB127" s="108"/>
-      <c r="AE127" s="106"/>
-      <c r="AF127" s="107"/>
-      <c r="AG127" s="107"/>
-      <c r="AH127" s="108"/>
+      <c r="T127" s="124"/>
+      <c r="U127" s="125"/>
+      <c r="V127" s="125"/>
+      <c r="W127" s="126"/>
+      <c r="Y127" s="124"/>
+      <c r="Z127" s="125"/>
+      <c r="AA127" s="125"/>
+      <c r="AB127" s="126"/>
+      <c r="AE127" s="124"/>
+      <c r="AF127" s="125"/>
+      <c r="AG127" s="125"/>
+      <c r="AH127" s="126"/>
       <c r="AK127" s="21"/>
     </row>
     <row r="128" spans="3:37">
@@ -50802,30 +50800,30 @@
       <c r="C141" s="21"/>
       <c r="D141" s="21"/>
       <c r="E141" s="21"/>
-      <c r="Q141" s="118" t="s">
+      <c r="Q141" s="100" t="s">
         <v>137</v>
       </c>
-      <c r="R141" s="119"/>
-      <c r="S141" s="119"/>
-      <c r="T141" s="120"/>
+      <c r="R141" s="101"/>
+      <c r="S141" s="101"/>
+      <c r="T141" s="102"/>
     </row>
     <row r="142" spans="1:37">
       <c r="C142" s="21"/>
       <c r="D142" s="21"/>
       <c r="E142" s="21"/>
-      <c r="Q142" s="121"/>
-      <c r="R142" s="122"/>
-      <c r="S142" s="122"/>
-      <c r="T142" s="123"/>
+      <c r="Q142" s="103"/>
+      <c r="R142" s="104"/>
+      <c r="S142" s="104"/>
+      <c r="T142" s="105"/>
     </row>
     <row r="143" spans="1:37">
       <c r="C143" s="21"/>
       <c r="D143" s="21"/>
       <c r="E143" s="21"/>
-      <c r="Q143" s="124"/>
-      <c r="R143" s="125"/>
-      <c r="S143" s="125"/>
-      <c r="T143" s="126"/>
+      <c r="Q143" s="106"/>
+      <c r="R143" s="107"/>
+      <c r="S143" s="107"/>
+      <c r="T143" s="108"/>
     </row>
     <row r="144" spans="1:37">
       <c r="C144" s="21"/>
@@ -50878,40 +50876,40 @@
     </row>
     <row r="147" spans="3:37">
       <c r="G147" s="21"/>
-      <c r="H147" s="118" t="s">
+      <c r="H147" s="100" t="s">
         <v>138</v>
       </c>
-      <c r="I147" s="119"/>
-      <c r="J147" s="119"/>
-      <c r="K147" s="120"/>
-      <c r="Y147" s="118" t="s">
+      <c r="I147" s="101"/>
+      <c r="J147" s="101"/>
+      <c r="K147" s="102"/>
+      <c r="Y147" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="Z147" s="119"/>
-      <c r="AA147" s="119"/>
-      <c r="AB147" s="120"/>
+      <c r="Z147" s="101"/>
+      <c r="AA147" s="101"/>
+      <c r="AB147" s="102"/>
     </row>
     <row r="148" spans="3:37">
       <c r="G148" s="21"/>
-      <c r="H148" s="121"/>
-      <c r="I148" s="122"/>
-      <c r="J148" s="122"/>
-      <c r="K148" s="123"/>
-      <c r="Y148" s="121"/>
-      <c r="Z148" s="122"/>
-      <c r="AA148" s="122"/>
-      <c r="AB148" s="123"/>
+      <c r="H148" s="103"/>
+      <c r="I148" s="104"/>
+      <c r="J148" s="104"/>
+      <c r="K148" s="105"/>
+      <c r="Y148" s="103"/>
+      <c r="Z148" s="104"/>
+      <c r="AA148" s="104"/>
+      <c r="AB148" s="105"/>
     </row>
     <row r="149" spans="3:37">
       <c r="G149" s="21"/>
-      <c r="H149" s="124"/>
-      <c r="I149" s="125"/>
-      <c r="J149" s="125"/>
-      <c r="K149" s="126"/>
-      <c r="Y149" s="124"/>
-      <c r="Z149" s="125"/>
-      <c r="AA149" s="125"/>
-      <c r="AB149" s="126"/>
+      <c r="H149" s="106"/>
+      <c r="I149" s="107"/>
+      <c r="J149" s="107"/>
+      <c r="K149" s="108"/>
+      <c r="Y149" s="106"/>
+      <c r="Z149" s="107"/>
+      <c r="AA149" s="107"/>
+      <c r="AB149" s="108"/>
     </row>
     <row r="150" spans="3:37">
       <c r="E150" s="60"/>
@@ -50984,120 +50982,120 @@
       <c r="AF152" s="57"/>
     </row>
     <row r="153" spans="3:37" ht="18" customHeight="1">
-      <c r="C153" s="100" t="s">
+      <c r="C153" s="118" t="s">
         <v>111</v>
       </c>
-      <c r="D153" s="101"/>
-      <c r="E153" s="101"/>
-      <c r="F153" s="102"/>
-      <c r="H153" s="100" t="s">
+      <c r="D153" s="119"/>
+      <c r="E153" s="119"/>
+      <c r="F153" s="120"/>
+      <c r="H153" s="118" t="s">
         <v>112</v>
       </c>
-      <c r="I153" s="101"/>
-      <c r="J153" s="101"/>
-      <c r="K153" s="102"/>
-      <c r="N153" s="100" t="s">
+      <c r="I153" s="119"/>
+      <c r="J153" s="119"/>
+      <c r="K153" s="120"/>
+      <c r="N153" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="O153" s="101"/>
-      <c r="P153" s="101"/>
-      <c r="Q153" s="102"/>
-      <c r="T153" s="100" t="s">
+      <c r="O153" s="119"/>
+      <c r="P153" s="119"/>
+      <c r="Q153" s="120"/>
+      <c r="T153" s="118" t="s">
         <v>115</v>
       </c>
-      <c r="U153" s="101"/>
-      <c r="V153" s="101"/>
-      <c r="W153" s="102"/>
-      <c r="Y153" s="100" t="s">
+      <c r="U153" s="119"/>
+      <c r="V153" s="119"/>
+      <c r="W153" s="120"/>
+      <c r="Y153" s="118" t="s">
         <v>116</v>
       </c>
-      <c r="Z153" s="101"/>
-      <c r="AA153" s="101"/>
-      <c r="AB153" s="102"/>
-      <c r="AE153" s="100" t="s">
+      <c r="Z153" s="119"/>
+      <c r="AA153" s="119"/>
+      <c r="AB153" s="120"/>
+      <c r="AE153" s="118" t="s">
         <v>141</v>
       </c>
-      <c r="AF153" s="101"/>
-      <c r="AG153" s="101"/>
-      <c r="AH153" s="102"/>
+      <c r="AF153" s="119"/>
+      <c r="AG153" s="119"/>
+      <c r="AH153" s="120"/>
     </row>
     <row r="154" spans="3:37">
-      <c r="C154" s="103"/>
-      <c r="D154" s="104"/>
-      <c r="E154" s="104"/>
-      <c r="F154" s="105"/>
-      <c r="H154" s="103"/>
-      <c r="I154" s="104"/>
-      <c r="J154" s="104"/>
-      <c r="K154" s="105"/>
-      <c r="N154" s="103"/>
-      <c r="O154" s="104"/>
-      <c r="P154" s="104"/>
-      <c r="Q154" s="105"/>
-      <c r="T154" s="103"/>
-      <c r="U154" s="104"/>
-      <c r="V154" s="104"/>
-      <c r="W154" s="105"/>
-      <c r="Y154" s="103"/>
-      <c r="Z154" s="104"/>
-      <c r="AA154" s="104"/>
-      <c r="AB154" s="105"/>
-      <c r="AE154" s="103"/>
-      <c r="AF154" s="104"/>
-      <c r="AG154" s="104"/>
-      <c r="AH154" s="105"/>
+      <c r="C154" s="121"/>
+      <c r="D154" s="122"/>
+      <c r="E154" s="122"/>
+      <c r="F154" s="123"/>
+      <c r="H154" s="121"/>
+      <c r="I154" s="122"/>
+      <c r="J154" s="122"/>
+      <c r="K154" s="123"/>
+      <c r="N154" s="121"/>
+      <c r="O154" s="122"/>
+      <c r="P154" s="122"/>
+      <c r="Q154" s="123"/>
+      <c r="T154" s="121"/>
+      <c r="U154" s="122"/>
+      <c r="V154" s="122"/>
+      <c r="W154" s="123"/>
+      <c r="Y154" s="121"/>
+      <c r="Z154" s="122"/>
+      <c r="AA154" s="122"/>
+      <c r="AB154" s="123"/>
+      <c r="AE154" s="121"/>
+      <c r="AF154" s="122"/>
+      <c r="AG154" s="122"/>
+      <c r="AH154" s="123"/>
     </row>
     <row r="155" spans="3:37">
-      <c r="C155" s="103"/>
-      <c r="D155" s="104"/>
-      <c r="E155" s="104"/>
-      <c r="F155" s="105"/>
-      <c r="H155" s="103"/>
-      <c r="I155" s="104"/>
-      <c r="J155" s="104"/>
-      <c r="K155" s="105"/>
-      <c r="N155" s="103"/>
-      <c r="O155" s="104"/>
-      <c r="P155" s="104"/>
-      <c r="Q155" s="105"/>
-      <c r="T155" s="103"/>
-      <c r="U155" s="104"/>
-      <c r="V155" s="104"/>
-      <c r="W155" s="105"/>
-      <c r="Y155" s="103"/>
-      <c r="Z155" s="104"/>
-      <c r="AA155" s="104"/>
-      <c r="AB155" s="105"/>
-      <c r="AE155" s="103"/>
-      <c r="AF155" s="104"/>
-      <c r="AG155" s="104"/>
-      <c r="AH155" s="105"/>
+      <c r="C155" s="121"/>
+      <c r="D155" s="122"/>
+      <c r="E155" s="122"/>
+      <c r="F155" s="123"/>
+      <c r="H155" s="121"/>
+      <c r="I155" s="122"/>
+      <c r="J155" s="122"/>
+      <c r="K155" s="123"/>
+      <c r="N155" s="121"/>
+      <c r="O155" s="122"/>
+      <c r="P155" s="122"/>
+      <c r="Q155" s="123"/>
+      <c r="T155" s="121"/>
+      <c r="U155" s="122"/>
+      <c r="V155" s="122"/>
+      <c r="W155" s="123"/>
+      <c r="Y155" s="121"/>
+      <c r="Z155" s="122"/>
+      <c r="AA155" s="122"/>
+      <c r="AB155" s="123"/>
+      <c r="AE155" s="121"/>
+      <c r="AF155" s="122"/>
+      <c r="AG155" s="122"/>
+      <c r="AH155" s="123"/>
     </row>
     <row r="156" spans="3:37">
-      <c r="C156" s="106"/>
-      <c r="D156" s="107"/>
-      <c r="E156" s="107"/>
-      <c r="F156" s="108"/>
-      <c r="H156" s="106"/>
-      <c r="I156" s="107"/>
-      <c r="J156" s="107"/>
-      <c r="K156" s="108"/>
-      <c r="N156" s="106"/>
-      <c r="O156" s="107"/>
-      <c r="P156" s="107"/>
-      <c r="Q156" s="108"/>
-      <c r="T156" s="106"/>
-      <c r="U156" s="107"/>
-      <c r="V156" s="107"/>
-      <c r="W156" s="108"/>
-      <c r="Y156" s="106"/>
-      <c r="Z156" s="107"/>
-      <c r="AA156" s="107"/>
-      <c r="AB156" s="108"/>
-      <c r="AE156" s="106"/>
-      <c r="AF156" s="107"/>
-      <c r="AG156" s="107"/>
-      <c r="AH156" s="108"/>
+      <c r="C156" s="124"/>
+      <c r="D156" s="125"/>
+      <c r="E156" s="125"/>
+      <c r="F156" s="126"/>
+      <c r="H156" s="124"/>
+      <c r="I156" s="125"/>
+      <c r="J156" s="125"/>
+      <c r="K156" s="126"/>
+      <c r="N156" s="124"/>
+      <c r="O156" s="125"/>
+      <c r="P156" s="125"/>
+      <c r="Q156" s="126"/>
+      <c r="T156" s="124"/>
+      <c r="U156" s="125"/>
+      <c r="V156" s="125"/>
+      <c r="W156" s="126"/>
+      <c r="Y156" s="124"/>
+      <c r="Z156" s="125"/>
+      <c r="AA156" s="125"/>
+      <c r="AB156" s="126"/>
+      <c r="AE156" s="124"/>
+      <c r="AF156" s="125"/>
+      <c r="AG156" s="125"/>
+      <c r="AH156" s="126"/>
     </row>
     <row r="157" spans="3:37">
       <c r="D157" s="55"/>
@@ -51207,24 +51205,24 @@
       <c r="I164" s="56"/>
       <c r="N164" s="21"/>
       <c r="O164" s="56"/>
-      <c r="T164" s="100" t="s">
+      <c r="T164" s="118" t="s">
         <v>119</v>
       </c>
-      <c r="U164" s="101"/>
-      <c r="V164" s="101"/>
-      <c r="W164" s="102"/>
-      <c r="Y164" s="100" t="s">
+      <c r="U164" s="119"/>
+      <c r="V164" s="119"/>
+      <c r="W164" s="120"/>
+      <c r="Y164" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="Z164" s="101"/>
-      <c r="AA164" s="101"/>
-      <c r="AB164" s="102"/>
-      <c r="AE164" s="100" t="s">
+      <c r="Z164" s="119"/>
+      <c r="AA164" s="119"/>
+      <c r="AB164" s="120"/>
+      <c r="AE164" s="118" t="s">
         <v>121</v>
       </c>
-      <c r="AF164" s="101"/>
-      <c r="AG164" s="101"/>
-      <c r="AH164" s="102"/>
+      <c r="AF164" s="119"/>
+      <c r="AG164" s="119"/>
+      <c r="AH164" s="120"/>
       <c r="AK164" s="21"/>
     </row>
     <row r="165" spans="3:37">
@@ -51233,18 +51231,18 @@
       <c r="I165" s="56"/>
       <c r="N165" s="21"/>
       <c r="O165" s="56"/>
-      <c r="T165" s="103"/>
-      <c r="U165" s="104"/>
-      <c r="V165" s="104"/>
-      <c r="W165" s="105"/>
-      <c r="Y165" s="103"/>
-      <c r="Z165" s="104"/>
-      <c r="AA165" s="104"/>
-      <c r="AB165" s="105"/>
-      <c r="AE165" s="103"/>
-      <c r="AF165" s="104"/>
-      <c r="AG165" s="104"/>
-      <c r="AH165" s="105"/>
+      <c r="T165" s="121"/>
+      <c r="U165" s="122"/>
+      <c r="V165" s="122"/>
+      <c r="W165" s="123"/>
+      <c r="Y165" s="121"/>
+      <c r="Z165" s="122"/>
+      <c r="AA165" s="122"/>
+      <c r="AB165" s="123"/>
+      <c r="AE165" s="121"/>
+      <c r="AF165" s="122"/>
+      <c r="AG165" s="122"/>
+      <c r="AH165" s="123"/>
       <c r="AK165" s="21"/>
     </row>
     <row r="166" spans="3:37">
@@ -51253,18 +51251,18 @@
       <c r="I166" s="56"/>
       <c r="N166" s="21"/>
       <c r="O166" s="56"/>
-      <c r="T166" s="103"/>
-      <c r="U166" s="104"/>
-      <c r="V166" s="104"/>
-      <c r="W166" s="105"/>
-      <c r="Y166" s="103"/>
-      <c r="Z166" s="104"/>
-      <c r="AA166" s="104"/>
-      <c r="AB166" s="105"/>
-      <c r="AE166" s="103"/>
-      <c r="AF166" s="104"/>
-      <c r="AG166" s="104"/>
-      <c r="AH166" s="105"/>
+      <c r="T166" s="121"/>
+      <c r="U166" s="122"/>
+      <c r="V166" s="122"/>
+      <c r="W166" s="123"/>
+      <c r="Y166" s="121"/>
+      <c r="Z166" s="122"/>
+      <c r="AA166" s="122"/>
+      <c r="AB166" s="123"/>
+      <c r="AE166" s="121"/>
+      <c r="AF166" s="122"/>
+      <c r="AG166" s="122"/>
+      <c r="AH166" s="123"/>
       <c r="AK166" s="21"/>
     </row>
     <row r="167" spans="3:37">
@@ -51273,18 +51271,18 @@
       <c r="I167" s="56"/>
       <c r="N167" s="21"/>
       <c r="O167" s="56"/>
-      <c r="T167" s="106"/>
-      <c r="U167" s="107"/>
-      <c r="V167" s="107"/>
-      <c r="W167" s="108"/>
-      <c r="Y167" s="106"/>
-      <c r="Z167" s="107"/>
-      <c r="AA167" s="107"/>
-      <c r="AB167" s="108"/>
-      <c r="AE167" s="106"/>
-      <c r="AF167" s="107"/>
-      <c r="AG167" s="107"/>
-      <c r="AH167" s="108"/>
+      <c r="T167" s="124"/>
+      <c r="U167" s="125"/>
+      <c r="V167" s="125"/>
+      <c r="W167" s="126"/>
+      <c r="Y167" s="124"/>
+      <c r="Z167" s="125"/>
+      <c r="AA167" s="125"/>
+      <c r="AB167" s="126"/>
+      <c r="AE167" s="124"/>
+      <c r="AF167" s="125"/>
+      <c r="AG167" s="125"/>
+      <c r="AH167" s="126"/>
       <c r="AK167" s="21"/>
     </row>
     <row r="168" spans="3:37">
@@ -51529,6 +51527,56 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="AE153:AH156"/>
+    <mergeCell ref="T164:W167"/>
+    <mergeCell ref="Y164:AB167"/>
+    <mergeCell ref="AE164:AH167"/>
+    <mergeCell ref="C173:F175"/>
+    <mergeCell ref="H173:K175"/>
+    <mergeCell ref="N173:Q175"/>
+    <mergeCell ref="Y173:AB175"/>
+    <mergeCell ref="T173:W175"/>
+    <mergeCell ref="AE173:AH175"/>
+    <mergeCell ref="Q141:T143"/>
+    <mergeCell ref="H147:K149"/>
+    <mergeCell ref="Y147:AB149"/>
+    <mergeCell ref="C153:F156"/>
+    <mergeCell ref="H153:K156"/>
+    <mergeCell ref="N153:Q156"/>
+    <mergeCell ref="T153:W156"/>
+    <mergeCell ref="Y153:AB156"/>
+    <mergeCell ref="AE113:AH116"/>
+    <mergeCell ref="T124:W127"/>
+    <mergeCell ref="Y124:AB127"/>
+    <mergeCell ref="AE124:AH127"/>
+    <mergeCell ref="Y133:AB135"/>
+    <mergeCell ref="T133:W135"/>
+    <mergeCell ref="AE133:AH135"/>
+    <mergeCell ref="T113:W116"/>
+    <mergeCell ref="Y113:AB116"/>
+    <mergeCell ref="I56:L58"/>
+    <mergeCell ref="Q101:T103"/>
+    <mergeCell ref="H107:K109"/>
+    <mergeCell ref="Y107:AB109"/>
+    <mergeCell ref="C56:F58"/>
+    <mergeCell ref="S93:V95"/>
+    <mergeCell ref="H84:K87"/>
+    <mergeCell ref="M84:P87"/>
+    <mergeCell ref="S84:V87"/>
+    <mergeCell ref="C93:F95"/>
+    <mergeCell ref="M93:P95"/>
+    <mergeCell ref="C133:F135"/>
+    <mergeCell ref="M64:P66"/>
+    <mergeCell ref="C70:F72"/>
+    <mergeCell ref="M70:P72"/>
+    <mergeCell ref="M76:P79"/>
+    <mergeCell ref="C113:F116"/>
+    <mergeCell ref="N113:Q116"/>
+    <mergeCell ref="H93:K95"/>
+    <mergeCell ref="C76:F79"/>
+    <mergeCell ref="N133:Q135"/>
+    <mergeCell ref="H113:K116"/>
+    <mergeCell ref="H133:K135"/>
     <mergeCell ref="C50:F52"/>
     <mergeCell ref="I50:L52"/>
     <mergeCell ref="F4:I6"/>
@@ -51542,56 +51590,6 @@
     <mergeCell ref="C36:F38"/>
     <mergeCell ref="I36:L38"/>
     <mergeCell ref="F44:I46"/>
-    <mergeCell ref="C133:F135"/>
-    <mergeCell ref="M64:P66"/>
-    <mergeCell ref="C70:F72"/>
-    <mergeCell ref="M70:P72"/>
-    <mergeCell ref="M76:P79"/>
-    <mergeCell ref="C113:F116"/>
-    <mergeCell ref="N113:Q116"/>
-    <mergeCell ref="H93:K95"/>
-    <mergeCell ref="C76:F79"/>
-    <mergeCell ref="N133:Q135"/>
-    <mergeCell ref="H113:K116"/>
-    <mergeCell ref="H133:K135"/>
-    <mergeCell ref="I56:L58"/>
-    <mergeCell ref="Q101:T103"/>
-    <mergeCell ref="H107:K109"/>
-    <mergeCell ref="Y107:AB109"/>
-    <mergeCell ref="C56:F58"/>
-    <mergeCell ref="S93:V95"/>
-    <mergeCell ref="H84:K87"/>
-    <mergeCell ref="M84:P87"/>
-    <mergeCell ref="S84:V87"/>
-    <mergeCell ref="C93:F95"/>
-    <mergeCell ref="M93:P95"/>
-    <mergeCell ref="AE113:AH116"/>
-    <mergeCell ref="T124:W127"/>
-    <mergeCell ref="Y124:AB127"/>
-    <mergeCell ref="AE124:AH127"/>
-    <mergeCell ref="Y133:AB135"/>
-    <mergeCell ref="T133:W135"/>
-    <mergeCell ref="AE133:AH135"/>
-    <mergeCell ref="T113:W116"/>
-    <mergeCell ref="Y113:AB116"/>
-    <mergeCell ref="Q141:T143"/>
-    <mergeCell ref="H147:K149"/>
-    <mergeCell ref="Y147:AB149"/>
-    <mergeCell ref="C153:F156"/>
-    <mergeCell ref="H153:K156"/>
-    <mergeCell ref="N153:Q156"/>
-    <mergeCell ref="T153:W156"/>
-    <mergeCell ref="Y153:AB156"/>
-    <mergeCell ref="AE153:AH156"/>
-    <mergeCell ref="T164:W167"/>
-    <mergeCell ref="Y164:AB167"/>
-    <mergeCell ref="AE164:AH167"/>
-    <mergeCell ref="C173:F175"/>
-    <mergeCell ref="H173:K175"/>
-    <mergeCell ref="N173:Q175"/>
-    <mergeCell ref="Y173:AB175"/>
-    <mergeCell ref="T173:W175"/>
-    <mergeCell ref="AE173:AH175"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51603,7 +51601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFA6C9D-9E53-451E-9FD7-58D9EEF2AE74}">
   <dimension ref="A1:V398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
@@ -70793,10 +70791,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="129" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="128"/>
+      <c r="C2" s="130"/>
       <c r="D2" s="97" t="s">
         <v>216</v>
       </c>
@@ -70817,7 +70815,7 @@
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="127" t="s">
         <v>215</v>
       </c>
       <c r="C3" s="13">
@@ -70843,7 +70841,7 @@
       </c>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="130"/>
+      <c r="B4" s="128"/>
       <c r="C4" s="13">
         <v>10000</v>
       </c>
@@ -70867,7 +70865,7 @@
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="130"/>
+      <c r="B5" s="128"/>
       <c r="C5" s="13">
         <v>100000</v>
       </c>

--- a/測定結果.xlsx
+++ b/測定結果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\DS220jNAS\☆Auto Backup\学会\論文プロジェクト\WEBDB夏2023\OneDrive_1_2023-8-14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D671E0-FA5B-49F1-97B4-E079BDF7D611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94036C04-5BC2-4710-8DCF-5DEBC172D154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11244" yWindow="1260" windowWidth="28380" windowHeight="20640" xr2:uid="{83EF0417-55A8-49D1-AFD2-1E78519C1B4D}"/>
+    <workbookView xWindow="11592" yWindow="1608" windowWidth="28380" windowHeight="20640" xr2:uid="{83EF0417-55A8-49D1-AFD2-1E78519C1B4D}"/>
   </bookViews>
   <sheets>
     <sheet name="1. 測定の概要" sheetId="15" r:id="rId1"/>
@@ -1995,13 +1995,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1. 概要</t>
-    <rPh sb="3" eb="5">
-      <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>2. 測定環境</t>
     <rPh sb="3" eb="5">
       <t>ソクテイ</t>
@@ -2310,6 +2303,13 @@
   </si>
   <si>
     <t>100 ｶﾗﾑ</t>
+  </si>
+  <si>
+    <t>■　1. 概要</t>
+    <rPh sb="5" eb="7">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -3011,31 +3011,31 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3065,31 +3065,31 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -47045,13 +47045,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A666A95-55D5-4BFB-B12E-BBFF004D0109}">
   <dimension ref="A1:AA72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.59765625" defaultRowHeight="21.6" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:27" ht="21.6" customHeight="1">
       <c r="A1" s="47" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -47117,7 +47119,7 @@
     </row>
     <row r="10" spans="1:27" ht="21.6" customHeight="1">
       <c r="A10" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
@@ -47152,7 +47154,7 @@
       </c>
       <c r="C11" s="68"/>
       <c r="D11" s="64" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E11" s="67"/>
       <c r="F11" s="67"/>
@@ -47190,11 +47192,11 @@
     </row>
     <row r="13" spans="1:27" ht="16.8" customHeight="1">
       <c r="B13" s="66" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C13" s="68"/>
       <c r="D13" s="64" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E13" s="67"/>
       <c r="F13" s="67"/>
@@ -47232,11 +47234,11 @@
     </row>
     <row r="15" spans="1:27" ht="16.8" customHeight="1">
       <c r="B15" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C15" s="70"/>
       <c r="D15" s="65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E15" s="71"/>
       <c r="F15" s="71"/>
@@ -47256,7 +47258,7 @@
     </row>
     <row r="17" spans="1:27" ht="21.6" customHeight="1">
       <c r="A17" s="47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" s="48"/>
       <c r="C17" s="48"/>
@@ -48171,7 +48173,7 @@
     </row>
     <row r="66" spans="1:27" ht="21.6" customHeight="1">
       <c r="A66" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B66" s="48"/>
       <c r="C66" s="48"/>
@@ -48202,12 +48204,12 @@
     </row>
     <row r="68" spans="1:27" ht="21.6" customHeight="1">
       <c r="B68" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="70" spans="1:27" ht="21.6" customHeight="1">
       <c r="A70" s="47" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B70" s="48"/>
       <c r="C70" s="48"/>
@@ -48238,7 +48240,7 @@
     </row>
     <row r="72" spans="1:27" ht="21.6" customHeight="1">
       <c r="B72" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -48658,12 +48660,12 @@
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
-      <c r="F4" s="100" t="s">
+      <c r="F4" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="102"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="120"/>
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
       <c r="L4" s="21"/>
@@ -48678,10 +48680,10 @@
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="105"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="123"/>
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
       <c r="L5" s="21"/>
@@ -48696,10 +48698,10 @@
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="108"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="126"/>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
@@ -48771,20 +48773,20 @@
     </row>
     <row r="10" spans="1:17">
       <c r="B10" s="21"/>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="118" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="102"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="120"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
-      <c r="I10" s="100" t="s">
+      <c r="I10" s="118" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="102"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="120"/>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
@@ -48793,16 +48795,16 @@
     </row>
     <row r="11" spans="1:17">
       <c r="B11" s="21"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="105"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="123"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="105"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="123"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="21"/>
@@ -48811,16 +48813,16 @@
     </row>
     <row r="12" spans="1:17">
       <c r="B12" s="21"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="108"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="126"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="108"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="125"/>
+      <c r="K12" s="125"/>
+      <c r="L12" s="126"/>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="21"/>
@@ -48981,12 +48983,12 @@
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
-      <c r="F24" s="100" t="s">
+      <c r="F24" s="118" t="s">
         <v>93</v>
       </c>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="102"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="120"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
       <c r="L24" s="21"/>
@@ -49000,10 +49002,10 @@
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="105"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="123"/>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
       <c r="L25" s="21"/>
@@ -49017,10 +49019,10 @@
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="108"/>
+      <c r="F26" s="124"/>
+      <c r="G26" s="125"/>
+      <c r="H26" s="125"/>
+      <c r="I26" s="126"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
@@ -49088,20 +49090,20 @@
       <c r="Q29" s="21"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="C30" s="100" t="s">
+      <c r="C30" s="118" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="102"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="120"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
-      <c r="I30" s="100" t="s">
+      <c r="I30" s="118" t="s">
         <v>94</v>
       </c>
-      <c r="J30" s="101"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="102"/>
+      <c r="J30" s="119"/>
+      <c r="K30" s="119"/>
+      <c r="L30" s="120"/>
       <c r="M30" s="21"/>
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
@@ -49109,16 +49111,16 @@
       <c r="Q30" s="21"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="C31" s="103"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="105"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="123"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="104"/>
-      <c r="K31" s="104"/>
-      <c r="L31" s="105"/>
+      <c r="I31" s="121"/>
+      <c r="J31" s="122"/>
+      <c r="K31" s="122"/>
+      <c r="L31" s="123"/>
       <c r="M31" s="21"/>
       <c r="N31" s="21"/>
       <c r="O31" s="21"/>
@@ -49126,16 +49128,16 @@
       <c r="Q31" s="21"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="C32" s="106"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="108"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="125"/>
+      <c r="F32" s="126"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="107"/>
-      <c r="L32" s="108"/>
+      <c r="I32" s="124"/>
+      <c r="J32" s="125"/>
+      <c r="K32" s="125"/>
+      <c r="L32" s="126"/>
       <c r="M32" s="21"/>
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
@@ -49292,12 +49294,12 @@
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
-      <c r="F44" s="100" t="s">
+      <c r="F44" s="118" t="s">
         <v>99</v>
       </c>
-      <c r="G44" s="101"/>
-      <c r="H44" s="101"/>
-      <c r="I44" s="102"/>
+      <c r="G44" s="119"/>
+      <c r="H44" s="119"/>
+      <c r="I44" s="120"/>
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
       <c r="L44" s="21"/>
@@ -49311,10 +49313,10 @@
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
-      <c r="F45" s="103"/>
-      <c r="G45" s="104"/>
-      <c r="H45" s="104"/>
-      <c r="I45" s="105"/>
+      <c r="F45" s="121"/>
+      <c r="G45" s="122"/>
+      <c r="H45" s="122"/>
+      <c r="I45" s="123"/>
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
@@ -49328,10 +49330,10 @@
       <c r="C46" s="21"/>
       <c r="D46" s="21"/>
       <c r="E46" s="21"/>
-      <c r="F46" s="106"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="107"/>
-      <c r="I46" s="108"/>
+      <c r="F46" s="124"/>
+      <c r="G46" s="125"/>
+      <c r="H46" s="125"/>
+      <c r="I46" s="126"/>
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
       <c r="L46" s="21"/>
@@ -49399,20 +49401,20 @@
       <c r="Q49" s="21"/>
     </row>
     <row r="50" spans="1:17">
-      <c r="C50" s="100" t="s">
+      <c r="C50" s="118" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="101"/>
-      <c r="E50" s="101"/>
-      <c r="F50" s="102"/>
+      <c r="D50" s="119"/>
+      <c r="E50" s="119"/>
+      <c r="F50" s="120"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
-      <c r="I50" s="100" t="s">
+      <c r="I50" s="118" t="s">
         <v>98</v>
       </c>
-      <c r="J50" s="101"/>
-      <c r="K50" s="101"/>
-      <c r="L50" s="102"/>
+      <c r="J50" s="119"/>
+      <c r="K50" s="119"/>
+      <c r="L50" s="120"/>
       <c r="M50" s="21"/>
       <c r="N50" s="21"/>
       <c r="O50" s="21"/>
@@ -49420,16 +49422,16 @@
       <c r="Q50" s="21"/>
     </row>
     <row r="51" spans="1:17">
-      <c r="C51" s="103"/>
-      <c r="D51" s="104"/>
-      <c r="E51" s="104"/>
-      <c r="F51" s="105"/>
+      <c r="C51" s="121"/>
+      <c r="D51" s="122"/>
+      <c r="E51" s="122"/>
+      <c r="F51" s="123"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
-      <c r="I51" s="103"/>
-      <c r="J51" s="104"/>
-      <c r="K51" s="104"/>
-      <c r="L51" s="105"/>
+      <c r="I51" s="121"/>
+      <c r="J51" s="122"/>
+      <c r="K51" s="122"/>
+      <c r="L51" s="123"/>
       <c r="M51" s="21"/>
       <c r="N51" s="21"/>
       <c r="O51" s="21"/>
@@ -49437,16 +49439,16 @@
       <c r="Q51" s="21"/>
     </row>
     <row r="52" spans="1:17">
-      <c r="C52" s="106"/>
-      <c r="D52" s="107"/>
-      <c r="E52" s="107"/>
-      <c r="F52" s="108"/>
+      <c r="C52" s="124"/>
+      <c r="D52" s="125"/>
+      <c r="E52" s="125"/>
+      <c r="F52" s="126"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
-      <c r="I52" s="106"/>
-      <c r="J52" s="107"/>
-      <c r="K52" s="107"/>
-      <c r="L52" s="108"/>
+      <c r="I52" s="124"/>
+      <c r="J52" s="125"/>
+      <c r="K52" s="125"/>
+      <c r="L52" s="126"/>
       <c r="M52" s="21"/>
       <c r="N52" s="21"/>
       <c r="O52" s="21"/>
@@ -49589,24 +49591,24 @@
       <c r="P63" s="21"/>
     </row>
     <row r="64" spans="1:17">
-      <c r="M64" s="100" t="s">
+      <c r="M64" s="118" t="s">
         <v>124</v>
       </c>
-      <c r="N64" s="101"/>
-      <c r="O64" s="101"/>
-      <c r="P64" s="102"/>
+      <c r="N64" s="119"/>
+      <c r="O64" s="119"/>
+      <c r="P64" s="120"/>
     </row>
     <row r="65" spans="3:16">
-      <c r="M65" s="103"/>
-      <c r="N65" s="104"/>
-      <c r="O65" s="104"/>
-      <c r="P65" s="105"/>
+      <c r="M65" s="121"/>
+      <c r="N65" s="122"/>
+      <c r="O65" s="122"/>
+      <c r="P65" s="123"/>
     </row>
     <row r="66" spans="3:16">
-      <c r="M66" s="106"/>
-      <c r="N66" s="107"/>
-      <c r="O66" s="107"/>
-      <c r="P66" s="108"/>
+      <c r="M66" s="124"/>
+      <c r="N66" s="125"/>
+      <c r="O66" s="125"/>
+      <c r="P66" s="126"/>
     </row>
     <row r="67" spans="3:16">
       <c r="E67" s="60"/>
@@ -49646,38 +49648,38 @@
       <c r="P69" s="21"/>
     </row>
     <row r="70" spans="3:16">
-      <c r="C70" s="100" t="s">
+      <c r="C70" s="118" t="s">
         <v>125</v>
       </c>
-      <c r="D70" s="101"/>
-      <c r="E70" s="101"/>
-      <c r="F70" s="102"/>
-      <c r="M70" s="100" t="s">
+      <c r="D70" s="119"/>
+      <c r="E70" s="119"/>
+      <c r="F70" s="120"/>
+      <c r="M70" s="118" t="s">
         <v>127</v>
       </c>
-      <c r="N70" s="101"/>
-      <c r="O70" s="101"/>
-      <c r="P70" s="102"/>
+      <c r="N70" s="119"/>
+      <c r="O70" s="119"/>
+      <c r="P70" s="120"/>
     </row>
     <row r="71" spans="3:16">
-      <c r="C71" s="103"/>
-      <c r="D71" s="104"/>
-      <c r="E71" s="104"/>
-      <c r="F71" s="105"/>
-      <c r="M71" s="103"/>
-      <c r="N71" s="104"/>
-      <c r="O71" s="104"/>
-      <c r="P71" s="105"/>
+      <c r="C71" s="121"/>
+      <c r="D71" s="122"/>
+      <c r="E71" s="122"/>
+      <c r="F71" s="123"/>
+      <c r="M71" s="121"/>
+      <c r="N71" s="122"/>
+      <c r="O71" s="122"/>
+      <c r="P71" s="123"/>
     </row>
     <row r="72" spans="3:16">
-      <c r="C72" s="106"/>
-      <c r="D72" s="107"/>
-      <c r="E72" s="107"/>
-      <c r="F72" s="108"/>
-      <c r="M72" s="106"/>
-      <c r="N72" s="107"/>
-      <c r="O72" s="107"/>
-      <c r="P72" s="108"/>
+      <c r="C72" s="124"/>
+      <c r="D72" s="125"/>
+      <c r="E72" s="125"/>
+      <c r="F72" s="126"/>
+      <c r="M72" s="124"/>
+      <c r="N72" s="125"/>
+      <c r="O72" s="125"/>
+      <c r="P72" s="126"/>
     </row>
     <row r="73" spans="3:16">
       <c r="C73" s="21"/>
@@ -49715,48 +49717,48 @@
       <c r="N75" s="57"/>
     </row>
     <row r="76" spans="3:16" ht="18" customHeight="1">
-      <c r="C76" s="118" t="s">
+      <c r="C76" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="D76" s="119"/>
-      <c r="E76" s="119"/>
-      <c r="F76" s="120"/>
-      <c r="M76" s="118" t="s">
+      <c r="D76" s="101"/>
+      <c r="E76" s="101"/>
+      <c r="F76" s="102"/>
+      <c r="M76" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="N76" s="119"/>
-      <c r="O76" s="119"/>
-      <c r="P76" s="120"/>
+      <c r="N76" s="101"/>
+      <c r="O76" s="101"/>
+      <c r="P76" s="102"/>
     </row>
     <row r="77" spans="3:16">
-      <c r="C77" s="121"/>
-      <c r="D77" s="122"/>
-      <c r="E77" s="122"/>
-      <c r="F77" s="123"/>
-      <c r="M77" s="121"/>
-      <c r="N77" s="122"/>
-      <c r="O77" s="122"/>
-      <c r="P77" s="123"/>
+      <c r="C77" s="103"/>
+      <c r="D77" s="104"/>
+      <c r="E77" s="104"/>
+      <c r="F77" s="105"/>
+      <c r="M77" s="103"/>
+      <c r="N77" s="104"/>
+      <c r="O77" s="104"/>
+      <c r="P77" s="105"/>
     </row>
     <row r="78" spans="3:16">
-      <c r="C78" s="121"/>
-      <c r="D78" s="122"/>
-      <c r="E78" s="122"/>
-      <c r="F78" s="123"/>
-      <c r="M78" s="121"/>
-      <c r="N78" s="122"/>
-      <c r="O78" s="122"/>
-      <c r="P78" s="123"/>
+      <c r="C78" s="103"/>
+      <c r="D78" s="104"/>
+      <c r="E78" s="104"/>
+      <c r="F78" s="105"/>
+      <c r="M78" s="103"/>
+      <c r="N78" s="104"/>
+      <c r="O78" s="104"/>
+      <c r="P78" s="105"/>
     </row>
     <row r="79" spans="3:16">
-      <c r="C79" s="124"/>
-      <c r="D79" s="125"/>
-      <c r="E79" s="125"/>
-      <c r="F79" s="126"/>
-      <c r="M79" s="124"/>
-      <c r="N79" s="125"/>
-      <c r="O79" s="125"/>
-      <c r="P79" s="126"/>
+      <c r="C79" s="106"/>
+      <c r="D79" s="107"/>
+      <c r="E79" s="107"/>
+      <c r="F79" s="108"/>
+      <c r="M79" s="106"/>
+      <c r="N79" s="107"/>
+      <c r="O79" s="107"/>
+      <c r="P79" s="108"/>
     </row>
     <row r="80" spans="3:16">
       <c r="D80" s="55"/>
@@ -49808,72 +49810,72 @@
     <row r="84" spans="3:25">
       <c r="C84" s="21"/>
       <c r="D84" s="56"/>
-      <c r="H84" s="118" t="s">
+      <c r="H84" s="100" t="s">
         <v>128</v>
       </c>
-      <c r="I84" s="119"/>
-      <c r="J84" s="119"/>
-      <c r="K84" s="120"/>
-      <c r="M84" s="118" t="s">
+      <c r="I84" s="101"/>
+      <c r="J84" s="101"/>
+      <c r="K84" s="102"/>
+      <c r="M84" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="N84" s="119"/>
-      <c r="O84" s="119"/>
-      <c r="P84" s="120"/>
-      <c r="S84" s="118" t="s">
+      <c r="N84" s="101"/>
+      <c r="O84" s="101"/>
+      <c r="P84" s="102"/>
+      <c r="S84" s="100" t="s">
         <v>130</v>
       </c>
-      <c r="T84" s="119"/>
-      <c r="U84" s="119"/>
-      <c r="V84" s="120"/>
+      <c r="T84" s="101"/>
+      <c r="U84" s="101"/>
+      <c r="V84" s="102"/>
     </row>
     <row r="85" spans="3:25">
       <c r="C85" s="21"/>
       <c r="D85" s="56"/>
-      <c r="H85" s="121"/>
-      <c r="I85" s="122"/>
-      <c r="J85" s="122"/>
-      <c r="K85" s="123"/>
-      <c r="M85" s="121"/>
-      <c r="N85" s="122"/>
-      <c r="O85" s="122"/>
-      <c r="P85" s="123"/>
-      <c r="S85" s="121"/>
-      <c r="T85" s="122"/>
-      <c r="U85" s="122"/>
-      <c r="V85" s="123"/>
+      <c r="H85" s="103"/>
+      <c r="I85" s="104"/>
+      <c r="J85" s="104"/>
+      <c r="K85" s="105"/>
+      <c r="M85" s="103"/>
+      <c r="N85" s="104"/>
+      <c r="O85" s="104"/>
+      <c r="P85" s="105"/>
+      <c r="S85" s="103"/>
+      <c r="T85" s="104"/>
+      <c r="U85" s="104"/>
+      <c r="V85" s="105"/>
     </row>
     <row r="86" spans="3:25">
       <c r="C86" s="21"/>
       <c r="D86" s="56"/>
-      <c r="H86" s="121"/>
-      <c r="I86" s="122"/>
-      <c r="J86" s="122"/>
-      <c r="K86" s="123"/>
-      <c r="M86" s="121"/>
-      <c r="N86" s="122"/>
-      <c r="O86" s="122"/>
-      <c r="P86" s="123"/>
-      <c r="S86" s="121"/>
-      <c r="T86" s="122"/>
-      <c r="U86" s="122"/>
-      <c r="V86" s="123"/>
+      <c r="H86" s="103"/>
+      <c r="I86" s="104"/>
+      <c r="J86" s="104"/>
+      <c r="K86" s="105"/>
+      <c r="M86" s="103"/>
+      <c r="N86" s="104"/>
+      <c r="O86" s="104"/>
+      <c r="P86" s="105"/>
+      <c r="S86" s="103"/>
+      <c r="T86" s="104"/>
+      <c r="U86" s="104"/>
+      <c r="V86" s="105"/>
     </row>
     <row r="87" spans="3:25">
       <c r="C87" s="21"/>
       <c r="D87" s="56"/>
-      <c r="H87" s="124"/>
-      <c r="I87" s="125"/>
-      <c r="J87" s="125"/>
-      <c r="K87" s="126"/>
-      <c r="M87" s="124"/>
-      <c r="N87" s="125"/>
-      <c r="O87" s="125"/>
-      <c r="P87" s="126"/>
-      <c r="S87" s="124"/>
-      <c r="T87" s="125"/>
-      <c r="U87" s="125"/>
-      <c r="V87" s="126"/>
+      <c r="H87" s="106"/>
+      <c r="I87" s="107"/>
+      <c r="J87" s="107"/>
+      <c r="K87" s="108"/>
+      <c r="M87" s="106"/>
+      <c r="N87" s="107"/>
+      <c r="O87" s="107"/>
+      <c r="P87" s="108"/>
+      <c r="S87" s="106"/>
+      <c r="T87" s="107"/>
+      <c r="U87" s="107"/>
+      <c r="V87" s="108"/>
     </row>
     <row r="88" spans="3:25">
       <c r="C88" s="21"/>
@@ -50055,30 +50057,30 @@
       <c r="C101" s="21"/>
       <c r="D101" s="21"/>
       <c r="E101" s="21"/>
-      <c r="Q101" s="100" t="s">
+      <c r="Q101" s="118" t="s">
         <v>105</v>
       </c>
-      <c r="R101" s="101"/>
-      <c r="S101" s="101"/>
-      <c r="T101" s="102"/>
+      <c r="R101" s="119"/>
+      <c r="S101" s="119"/>
+      <c r="T101" s="120"/>
     </row>
     <row r="102" spans="1:32">
       <c r="C102" s="21"/>
       <c r="D102" s="21"/>
       <c r="E102" s="21"/>
-      <c r="Q102" s="103"/>
-      <c r="R102" s="104"/>
-      <c r="S102" s="104"/>
-      <c r="T102" s="105"/>
+      <c r="Q102" s="121"/>
+      <c r="R102" s="122"/>
+      <c r="S102" s="122"/>
+      <c r="T102" s="123"/>
     </row>
     <row r="103" spans="1:32">
       <c r="C103" s="21"/>
       <c r="D103" s="21"/>
       <c r="E103" s="21"/>
-      <c r="Q103" s="106"/>
-      <c r="R103" s="107"/>
-      <c r="S103" s="107"/>
-      <c r="T103" s="108"/>
+      <c r="Q103" s="124"/>
+      <c r="R103" s="125"/>
+      <c r="S103" s="125"/>
+      <c r="T103" s="126"/>
     </row>
     <row r="104" spans="1:32">
       <c r="C104" s="21"/>
@@ -50131,40 +50133,40 @@
     </row>
     <row r="107" spans="1:32">
       <c r="G107" s="21"/>
-      <c r="H107" s="100" t="s">
+      <c r="H107" s="118" t="s">
         <v>106</v>
       </c>
-      <c r="I107" s="101"/>
-      <c r="J107" s="101"/>
-      <c r="K107" s="102"/>
-      <c r="Y107" s="100" t="s">
+      <c r="I107" s="119"/>
+      <c r="J107" s="119"/>
+      <c r="K107" s="120"/>
+      <c r="Y107" s="118" t="s">
         <v>107</v>
       </c>
-      <c r="Z107" s="101"/>
-      <c r="AA107" s="101"/>
-      <c r="AB107" s="102"/>
+      <c r="Z107" s="119"/>
+      <c r="AA107" s="119"/>
+      <c r="AB107" s="120"/>
     </row>
     <row r="108" spans="1:32">
       <c r="G108" s="21"/>
-      <c r="H108" s="103"/>
-      <c r="I108" s="104"/>
-      <c r="J108" s="104"/>
-      <c r="K108" s="105"/>
-      <c r="Y108" s="103"/>
-      <c r="Z108" s="104"/>
-      <c r="AA108" s="104"/>
-      <c r="AB108" s="105"/>
+      <c r="H108" s="121"/>
+      <c r="I108" s="122"/>
+      <c r="J108" s="122"/>
+      <c r="K108" s="123"/>
+      <c r="Y108" s="121"/>
+      <c r="Z108" s="122"/>
+      <c r="AA108" s="122"/>
+      <c r="AB108" s="123"/>
     </row>
     <row r="109" spans="1:32">
       <c r="G109" s="21"/>
-      <c r="H109" s="106"/>
-      <c r="I109" s="107"/>
-      <c r="J109" s="107"/>
-      <c r="K109" s="108"/>
-      <c r="Y109" s="106"/>
-      <c r="Z109" s="107"/>
-      <c r="AA109" s="107"/>
-      <c r="AB109" s="108"/>
+      <c r="H109" s="124"/>
+      <c r="I109" s="125"/>
+      <c r="J109" s="125"/>
+      <c r="K109" s="126"/>
+      <c r="Y109" s="124"/>
+      <c r="Z109" s="125"/>
+      <c r="AA109" s="125"/>
+      <c r="AB109" s="126"/>
     </row>
     <row r="110" spans="1:32">
       <c r="E110" s="60"/>
@@ -50237,120 +50239,120 @@
       <c r="AF112" s="57"/>
     </row>
     <row r="113" spans="3:37" ht="18" customHeight="1">
-      <c r="C113" s="118" t="s">
+      <c r="C113" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="D113" s="119"/>
-      <c r="E113" s="119"/>
-      <c r="F113" s="120"/>
-      <c r="H113" s="118" t="s">
+      <c r="D113" s="101"/>
+      <c r="E113" s="101"/>
+      <c r="F113" s="102"/>
+      <c r="H113" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="I113" s="119"/>
-      <c r="J113" s="119"/>
-      <c r="K113" s="120"/>
-      <c r="N113" s="118" t="s">
+      <c r="I113" s="101"/>
+      <c r="J113" s="101"/>
+      <c r="K113" s="102"/>
+      <c r="N113" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="O113" s="119"/>
-      <c r="P113" s="119"/>
-      <c r="Q113" s="120"/>
-      <c r="T113" s="118" t="s">
+      <c r="O113" s="101"/>
+      <c r="P113" s="101"/>
+      <c r="Q113" s="102"/>
+      <c r="T113" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="U113" s="119"/>
-      <c r="V113" s="119"/>
-      <c r="W113" s="120"/>
-      <c r="Y113" s="118" t="s">
+      <c r="U113" s="101"/>
+      <c r="V113" s="101"/>
+      <c r="W113" s="102"/>
+      <c r="Y113" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="Z113" s="119"/>
-      <c r="AA113" s="119"/>
-      <c r="AB113" s="120"/>
-      <c r="AE113" s="118" t="s">
+      <c r="Z113" s="101"/>
+      <c r="AA113" s="101"/>
+      <c r="AB113" s="102"/>
+      <c r="AE113" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="AF113" s="119"/>
-      <c r="AG113" s="119"/>
-      <c r="AH113" s="120"/>
+      <c r="AF113" s="101"/>
+      <c r="AG113" s="101"/>
+      <c r="AH113" s="102"/>
     </row>
     <row r="114" spans="3:37">
-      <c r="C114" s="121"/>
-      <c r="D114" s="122"/>
-      <c r="E114" s="122"/>
-      <c r="F114" s="123"/>
-      <c r="H114" s="121"/>
-      <c r="I114" s="122"/>
-      <c r="J114" s="122"/>
-      <c r="K114" s="123"/>
-      <c r="N114" s="121"/>
-      <c r="O114" s="122"/>
-      <c r="P114" s="122"/>
-      <c r="Q114" s="123"/>
-      <c r="T114" s="121"/>
-      <c r="U114" s="122"/>
-      <c r="V114" s="122"/>
-      <c r="W114" s="123"/>
-      <c r="Y114" s="121"/>
-      <c r="Z114" s="122"/>
-      <c r="AA114" s="122"/>
-      <c r="AB114" s="123"/>
-      <c r="AE114" s="121"/>
-      <c r="AF114" s="122"/>
-      <c r="AG114" s="122"/>
-      <c r="AH114" s="123"/>
+      <c r="C114" s="103"/>
+      <c r="D114" s="104"/>
+      <c r="E114" s="104"/>
+      <c r="F114" s="105"/>
+      <c r="H114" s="103"/>
+      <c r="I114" s="104"/>
+      <c r="J114" s="104"/>
+      <c r="K114" s="105"/>
+      <c r="N114" s="103"/>
+      <c r="O114" s="104"/>
+      <c r="P114" s="104"/>
+      <c r="Q114" s="105"/>
+      <c r="T114" s="103"/>
+      <c r="U114" s="104"/>
+      <c r="V114" s="104"/>
+      <c r="W114" s="105"/>
+      <c r="Y114" s="103"/>
+      <c r="Z114" s="104"/>
+      <c r="AA114" s="104"/>
+      <c r="AB114" s="105"/>
+      <c r="AE114" s="103"/>
+      <c r="AF114" s="104"/>
+      <c r="AG114" s="104"/>
+      <c r="AH114" s="105"/>
     </row>
     <row r="115" spans="3:37">
-      <c r="C115" s="121"/>
-      <c r="D115" s="122"/>
-      <c r="E115" s="122"/>
-      <c r="F115" s="123"/>
-      <c r="H115" s="121"/>
-      <c r="I115" s="122"/>
-      <c r="J115" s="122"/>
-      <c r="K115" s="123"/>
-      <c r="N115" s="121"/>
-      <c r="O115" s="122"/>
-      <c r="P115" s="122"/>
-      <c r="Q115" s="123"/>
-      <c r="T115" s="121"/>
-      <c r="U115" s="122"/>
-      <c r="V115" s="122"/>
-      <c r="W115" s="123"/>
-      <c r="Y115" s="121"/>
-      <c r="Z115" s="122"/>
-      <c r="AA115" s="122"/>
-      <c r="AB115" s="123"/>
-      <c r="AE115" s="121"/>
-      <c r="AF115" s="122"/>
-      <c r="AG115" s="122"/>
-      <c r="AH115" s="123"/>
+      <c r="C115" s="103"/>
+      <c r="D115" s="104"/>
+      <c r="E115" s="104"/>
+      <c r="F115" s="105"/>
+      <c r="H115" s="103"/>
+      <c r="I115" s="104"/>
+      <c r="J115" s="104"/>
+      <c r="K115" s="105"/>
+      <c r="N115" s="103"/>
+      <c r="O115" s="104"/>
+      <c r="P115" s="104"/>
+      <c r="Q115" s="105"/>
+      <c r="T115" s="103"/>
+      <c r="U115" s="104"/>
+      <c r="V115" s="104"/>
+      <c r="W115" s="105"/>
+      <c r="Y115" s="103"/>
+      <c r="Z115" s="104"/>
+      <c r="AA115" s="104"/>
+      <c r="AB115" s="105"/>
+      <c r="AE115" s="103"/>
+      <c r="AF115" s="104"/>
+      <c r="AG115" s="104"/>
+      <c r="AH115" s="105"/>
     </row>
     <row r="116" spans="3:37">
-      <c r="C116" s="124"/>
-      <c r="D116" s="125"/>
-      <c r="E116" s="125"/>
-      <c r="F116" s="126"/>
-      <c r="H116" s="124"/>
-      <c r="I116" s="125"/>
-      <c r="J116" s="125"/>
-      <c r="K116" s="126"/>
-      <c r="N116" s="124"/>
-      <c r="O116" s="125"/>
-      <c r="P116" s="125"/>
-      <c r="Q116" s="126"/>
-      <c r="T116" s="124"/>
-      <c r="U116" s="125"/>
-      <c r="V116" s="125"/>
-      <c r="W116" s="126"/>
-      <c r="Y116" s="124"/>
-      <c r="Z116" s="125"/>
-      <c r="AA116" s="125"/>
-      <c r="AB116" s="126"/>
-      <c r="AE116" s="124"/>
-      <c r="AF116" s="125"/>
-      <c r="AG116" s="125"/>
-      <c r="AH116" s="126"/>
+      <c r="C116" s="106"/>
+      <c r="D116" s="107"/>
+      <c r="E116" s="107"/>
+      <c r="F116" s="108"/>
+      <c r="H116" s="106"/>
+      <c r="I116" s="107"/>
+      <c r="J116" s="107"/>
+      <c r="K116" s="108"/>
+      <c r="N116" s="106"/>
+      <c r="O116" s="107"/>
+      <c r="P116" s="107"/>
+      <c r="Q116" s="108"/>
+      <c r="T116" s="106"/>
+      <c r="U116" s="107"/>
+      <c r="V116" s="107"/>
+      <c r="W116" s="108"/>
+      <c r="Y116" s="106"/>
+      <c r="Z116" s="107"/>
+      <c r="AA116" s="107"/>
+      <c r="AB116" s="108"/>
+      <c r="AE116" s="106"/>
+      <c r="AF116" s="107"/>
+      <c r="AG116" s="107"/>
+      <c r="AH116" s="108"/>
     </row>
     <row r="117" spans="3:37">
       <c r="D117" s="55"/>
@@ -50460,24 +50462,24 @@
       <c r="I124" s="56"/>
       <c r="N124" s="21"/>
       <c r="O124" s="56"/>
-      <c r="T124" s="118" t="s">
+      <c r="T124" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="U124" s="119"/>
-      <c r="V124" s="119"/>
-      <c r="W124" s="120"/>
-      <c r="Y124" s="118" t="s">
+      <c r="U124" s="101"/>
+      <c r="V124" s="101"/>
+      <c r="W124" s="102"/>
+      <c r="Y124" s="100" t="s">
         <v>120</v>
       </c>
-      <c r="Z124" s="119"/>
-      <c r="AA124" s="119"/>
-      <c r="AB124" s="120"/>
-      <c r="AE124" s="118" t="s">
+      <c r="Z124" s="101"/>
+      <c r="AA124" s="101"/>
+      <c r="AB124" s="102"/>
+      <c r="AE124" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="AF124" s="119"/>
-      <c r="AG124" s="119"/>
-      <c r="AH124" s="120"/>
+      <c r="AF124" s="101"/>
+      <c r="AG124" s="101"/>
+      <c r="AH124" s="102"/>
       <c r="AK124" s="21"/>
     </row>
     <row r="125" spans="3:37">
@@ -50486,18 +50488,18 @@
       <c r="I125" s="56"/>
       <c r="N125" s="21"/>
       <c r="O125" s="56"/>
-      <c r="T125" s="121"/>
-      <c r="U125" s="122"/>
-      <c r="V125" s="122"/>
-      <c r="W125" s="123"/>
-      <c r="Y125" s="121"/>
-      <c r="Z125" s="122"/>
-      <c r="AA125" s="122"/>
-      <c r="AB125" s="123"/>
-      <c r="AE125" s="121"/>
-      <c r="AF125" s="122"/>
-      <c r="AG125" s="122"/>
-      <c r="AH125" s="123"/>
+      <c r="T125" s="103"/>
+      <c r="U125" s="104"/>
+      <c r="V125" s="104"/>
+      <c r="W125" s="105"/>
+      <c r="Y125" s="103"/>
+      <c r="Z125" s="104"/>
+      <c r="AA125" s="104"/>
+      <c r="AB125" s="105"/>
+      <c r="AE125" s="103"/>
+      <c r="AF125" s="104"/>
+      <c r="AG125" s="104"/>
+      <c r="AH125" s="105"/>
       <c r="AK125" s="21"/>
     </row>
     <row r="126" spans="3:37">
@@ -50506,18 +50508,18 @@
       <c r="I126" s="56"/>
       <c r="N126" s="21"/>
       <c r="O126" s="56"/>
-      <c r="T126" s="121"/>
-      <c r="U126" s="122"/>
-      <c r="V126" s="122"/>
-      <c r="W126" s="123"/>
-      <c r="Y126" s="121"/>
-      <c r="Z126" s="122"/>
-      <c r="AA126" s="122"/>
-      <c r="AB126" s="123"/>
-      <c r="AE126" s="121"/>
-      <c r="AF126" s="122"/>
-      <c r="AG126" s="122"/>
-      <c r="AH126" s="123"/>
+      <c r="T126" s="103"/>
+      <c r="U126" s="104"/>
+      <c r="V126" s="104"/>
+      <c r="W126" s="105"/>
+      <c r="Y126" s="103"/>
+      <c r="Z126" s="104"/>
+      <c r="AA126" s="104"/>
+      <c r="AB126" s="105"/>
+      <c r="AE126" s="103"/>
+      <c r="AF126" s="104"/>
+      <c r="AG126" s="104"/>
+      <c r="AH126" s="105"/>
       <c r="AK126" s="21"/>
     </row>
     <row r="127" spans="3:37">
@@ -50526,18 +50528,18 @@
       <c r="I127" s="56"/>
       <c r="N127" s="21"/>
       <c r="O127" s="56"/>
-      <c r="T127" s="124"/>
-      <c r="U127" s="125"/>
-      <c r="V127" s="125"/>
-      <c r="W127" s="126"/>
-      <c r="Y127" s="124"/>
-      <c r="Z127" s="125"/>
-      <c r="AA127" s="125"/>
-      <c r="AB127" s="126"/>
-      <c r="AE127" s="124"/>
-      <c r="AF127" s="125"/>
-      <c r="AG127" s="125"/>
-      <c r="AH127" s="126"/>
+      <c r="T127" s="106"/>
+      <c r="U127" s="107"/>
+      <c r="V127" s="107"/>
+      <c r="W127" s="108"/>
+      <c r="Y127" s="106"/>
+      <c r="Z127" s="107"/>
+      <c r="AA127" s="107"/>
+      <c r="AB127" s="108"/>
+      <c r="AE127" s="106"/>
+      <c r="AF127" s="107"/>
+      <c r="AG127" s="107"/>
+      <c r="AH127" s="108"/>
       <c r="AK127" s="21"/>
     </row>
     <row r="128" spans="3:37">
@@ -50800,30 +50802,30 @@
       <c r="C141" s="21"/>
       <c r="D141" s="21"/>
       <c r="E141" s="21"/>
-      <c r="Q141" s="100" t="s">
+      <c r="Q141" s="118" t="s">
         <v>137</v>
       </c>
-      <c r="R141" s="101"/>
-      <c r="S141" s="101"/>
-      <c r="T141" s="102"/>
+      <c r="R141" s="119"/>
+      <c r="S141" s="119"/>
+      <c r="T141" s="120"/>
     </row>
     <row r="142" spans="1:37">
       <c r="C142" s="21"/>
       <c r="D142" s="21"/>
       <c r="E142" s="21"/>
-      <c r="Q142" s="103"/>
-      <c r="R142" s="104"/>
-      <c r="S142" s="104"/>
-      <c r="T142" s="105"/>
+      <c r="Q142" s="121"/>
+      <c r="R142" s="122"/>
+      <c r="S142" s="122"/>
+      <c r="T142" s="123"/>
     </row>
     <row r="143" spans="1:37">
       <c r="C143" s="21"/>
       <c r="D143" s="21"/>
       <c r="E143" s="21"/>
-      <c r="Q143" s="106"/>
-      <c r="R143" s="107"/>
-      <c r="S143" s="107"/>
-      <c r="T143" s="108"/>
+      <c r="Q143" s="124"/>
+      <c r="R143" s="125"/>
+      <c r="S143" s="125"/>
+      <c r="T143" s="126"/>
     </row>
     <row r="144" spans="1:37">
       <c r="C144" s="21"/>
@@ -50876,40 +50878,40 @@
     </row>
     <row r="147" spans="3:37">
       <c r="G147" s="21"/>
-      <c r="H147" s="100" t="s">
+      <c r="H147" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="I147" s="101"/>
-      <c r="J147" s="101"/>
-      <c r="K147" s="102"/>
-      <c r="Y147" s="100" t="s">
+      <c r="I147" s="119"/>
+      <c r="J147" s="119"/>
+      <c r="K147" s="120"/>
+      <c r="Y147" s="118" t="s">
         <v>139</v>
       </c>
-      <c r="Z147" s="101"/>
-      <c r="AA147" s="101"/>
-      <c r="AB147" s="102"/>
+      <c r="Z147" s="119"/>
+      <c r="AA147" s="119"/>
+      <c r="AB147" s="120"/>
     </row>
     <row r="148" spans="3:37">
       <c r="G148" s="21"/>
-      <c r="H148" s="103"/>
-      <c r="I148" s="104"/>
-      <c r="J148" s="104"/>
-      <c r="K148" s="105"/>
-      <c r="Y148" s="103"/>
-      <c r="Z148" s="104"/>
-      <c r="AA148" s="104"/>
-      <c r="AB148" s="105"/>
+      <c r="H148" s="121"/>
+      <c r="I148" s="122"/>
+      <c r="J148" s="122"/>
+      <c r="K148" s="123"/>
+      <c r="Y148" s="121"/>
+      <c r="Z148" s="122"/>
+      <c r="AA148" s="122"/>
+      <c r="AB148" s="123"/>
     </row>
     <row r="149" spans="3:37">
       <c r="G149" s="21"/>
-      <c r="H149" s="106"/>
-      <c r="I149" s="107"/>
-      <c r="J149" s="107"/>
-      <c r="K149" s="108"/>
-      <c r="Y149" s="106"/>
-      <c r="Z149" s="107"/>
-      <c r="AA149" s="107"/>
-      <c r="AB149" s="108"/>
+      <c r="H149" s="124"/>
+      <c r="I149" s="125"/>
+      <c r="J149" s="125"/>
+      <c r="K149" s="126"/>
+      <c r="Y149" s="124"/>
+      <c r="Z149" s="125"/>
+      <c r="AA149" s="125"/>
+      <c r="AB149" s="126"/>
     </row>
     <row r="150" spans="3:37">
       <c r="E150" s="60"/>
@@ -50982,120 +50984,120 @@
       <c r="AF152" s="57"/>
     </row>
     <row r="153" spans="3:37" ht="18" customHeight="1">
-      <c r="C153" s="118" t="s">
+      <c r="C153" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="D153" s="119"/>
-      <c r="E153" s="119"/>
-      <c r="F153" s="120"/>
-      <c r="H153" s="118" t="s">
+      <c r="D153" s="101"/>
+      <c r="E153" s="101"/>
+      <c r="F153" s="102"/>
+      <c r="H153" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="I153" s="119"/>
-      <c r="J153" s="119"/>
-      <c r="K153" s="120"/>
-      <c r="N153" s="118" t="s">
+      <c r="I153" s="101"/>
+      <c r="J153" s="101"/>
+      <c r="K153" s="102"/>
+      <c r="N153" s="100" t="s">
         <v>134</v>
       </c>
-      <c r="O153" s="119"/>
-      <c r="P153" s="119"/>
-      <c r="Q153" s="120"/>
-      <c r="T153" s="118" t="s">
+      <c r="O153" s="101"/>
+      <c r="P153" s="101"/>
+      <c r="Q153" s="102"/>
+      <c r="T153" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="U153" s="119"/>
-      <c r="V153" s="119"/>
-      <c r="W153" s="120"/>
-      <c r="Y153" s="118" t="s">
+      <c r="U153" s="101"/>
+      <c r="V153" s="101"/>
+      <c r="W153" s="102"/>
+      <c r="Y153" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="Z153" s="119"/>
-      <c r="AA153" s="119"/>
-      <c r="AB153" s="120"/>
-      <c r="AE153" s="118" t="s">
+      <c r="Z153" s="101"/>
+      <c r="AA153" s="101"/>
+      <c r="AB153" s="102"/>
+      <c r="AE153" s="100" t="s">
         <v>141</v>
       </c>
-      <c r="AF153" s="119"/>
-      <c r="AG153" s="119"/>
-      <c r="AH153" s="120"/>
+      <c r="AF153" s="101"/>
+      <c r="AG153" s="101"/>
+      <c r="AH153" s="102"/>
     </row>
     <row r="154" spans="3:37">
-      <c r="C154" s="121"/>
-      <c r="D154" s="122"/>
-      <c r="E154" s="122"/>
-      <c r="F154" s="123"/>
-      <c r="H154" s="121"/>
-      <c r="I154" s="122"/>
-      <c r="J154" s="122"/>
-      <c r="K154" s="123"/>
-      <c r="N154" s="121"/>
-      <c r="O154" s="122"/>
-      <c r="P154" s="122"/>
-      <c r="Q154" s="123"/>
-      <c r="T154" s="121"/>
-      <c r="U154" s="122"/>
-      <c r="V154" s="122"/>
-      <c r="W154" s="123"/>
-      <c r="Y154" s="121"/>
-      <c r="Z154" s="122"/>
-      <c r="AA154" s="122"/>
-      <c r="AB154" s="123"/>
-      <c r="AE154" s="121"/>
-      <c r="AF154" s="122"/>
-      <c r="AG154" s="122"/>
-      <c r="AH154" s="123"/>
+      <c r="C154" s="103"/>
+      <c r="D154" s="104"/>
+      <c r="E154" s="104"/>
+      <c r="F154" s="105"/>
+      <c r="H154" s="103"/>
+      <c r="I154" s="104"/>
+      <c r="J154" s="104"/>
+      <c r="K154" s="105"/>
+      <c r="N154" s="103"/>
+      <c r="O154" s="104"/>
+      <c r="P154" s="104"/>
+      <c r="Q154" s="105"/>
+      <c r="T154" s="103"/>
+      <c r="U154" s="104"/>
+      <c r="V154" s="104"/>
+      <c r="W154" s="105"/>
+      <c r="Y154" s="103"/>
+      <c r="Z154" s="104"/>
+      <c r="AA154" s="104"/>
+      <c r="AB154" s="105"/>
+      <c r="AE154" s="103"/>
+      <c r="AF154" s="104"/>
+      <c r="AG154" s="104"/>
+      <c r="AH154" s="105"/>
     </row>
     <row r="155" spans="3:37">
-      <c r="C155" s="121"/>
-      <c r="D155" s="122"/>
-      <c r="E155" s="122"/>
-      <c r="F155" s="123"/>
-      <c r="H155" s="121"/>
-      <c r="I155" s="122"/>
-      <c r="J155" s="122"/>
-      <c r="K155" s="123"/>
-      <c r="N155" s="121"/>
-      <c r="O155" s="122"/>
-      <c r="P155" s="122"/>
-      <c r="Q155" s="123"/>
-      <c r="T155" s="121"/>
-      <c r="U155" s="122"/>
-      <c r="V155" s="122"/>
-      <c r="W155" s="123"/>
-      <c r="Y155" s="121"/>
-      <c r="Z155" s="122"/>
-      <c r="AA155" s="122"/>
-      <c r="AB155" s="123"/>
-      <c r="AE155" s="121"/>
-      <c r="AF155" s="122"/>
-      <c r="AG155" s="122"/>
-      <c r="AH155" s="123"/>
+      <c r="C155" s="103"/>
+      <c r="D155" s="104"/>
+      <c r="E155" s="104"/>
+      <c r="F155" s="105"/>
+      <c r="H155" s="103"/>
+      <c r="I155" s="104"/>
+      <c r="J155" s="104"/>
+      <c r="K155" s="105"/>
+      <c r="N155" s="103"/>
+      <c r="O155" s="104"/>
+      <c r="P155" s="104"/>
+      <c r="Q155" s="105"/>
+      <c r="T155" s="103"/>
+      <c r="U155" s="104"/>
+      <c r="V155" s="104"/>
+      <c r="W155" s="105"/>
+      <c r="Y155" s="103"/>
+      <c r="Z155" s="104"/>
+      <c r="AA155" s="104"/>
+      <c r="AB155" s="105"/>
+      <c r="AE155" s="103"/>
+      <c r="AF155" s="104"/>
+      <c r="AG155" s="104"/>
+      <c r="AH155" s="105"/>
     </row>
     <row r="156" spans="3:37">
-      <c r="C156" s="124"/>
-      <c r="D156" s="125"/>
-      <c r="E156" s="125"/>
-      <c r="F156" s="126"/>
-      <c r="H156" s="124"/>
-      <c r="I156" s="125"/>
-      <c r="J156" s="125"/>
-      <c r="K156" s="126"/>
-      <c r="N156" s="124"/>
-      <c r="O156" s="125"/>
-      <c r="P156" s="125"/>
-      <c r="Q156" s="126"/>
-      <c r="T156" s="124"/>
-      <c r="U156" s="125"/>
-      <c r="V156" s="125"/>
-      <c r="W156" s="126"/>
-      <c r="Y156" s="124"/>
-      <c r="Z156" s="125"/>
-      <c r="AA156" s="125"/>
-      <c r="AB156" s="126"/>
-      <c r="AE156" s="124"/>
-      <c r="AF156" s="125"/>
-      <c r="AG156" s="125"/>
-      <c r="AH156" s="126"/>
+      <c r="C156" s="106"/>
+      <c r="D156" s="107"/>
+      <c r="E156" s="107"/>
+      <c r="F156" s="108"/>
+      <c r="H156" s="106"/>
+      <c r="I156" s="107"/>
+      <c r="J156" s="107"/>
+      <c r="K156" s="108"/>
+      <c r="N156" s="106"/>
+      <c r="O156" s="107"/>
+      <c r="P156" s="107"/>
+      <c r="Q156" s="108"/>
+      <c r="T156" s="106"/>
+      <c r="U156" s="107"/>
+      <c r="V156" s="107"/>
+      <c r="W156" s="108"/>
+      <c r="Y156" s="106"/>
+      <c r="Z156" s="107"/>
+      <c r="AA156" s="107"/>
+      <c r="AB156" s="108"/>
+      <c r="AE156" s="106"/>
+      <c r="AF156" s="107"/>
+      <c r="AG156" s="107"/>
+      <c r="AH156" s="108"/>
     </row>
     <row r="157" spans="3:37">
       <c r="D157" s="55"/>
@@ -51205,24 +51207,24 @@
       <c r="I164" s="56"/>
       <c r="N164" s="21"/>
       <c r="O164" s="56"/>
-      <c r="T164" s="118" t="s">
+      <c r="T164" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="U164" s="119"/>
-      <c r="V164" s="119"/>
-      <c r="W164" s="120"/>
-      <c r="Y164" s="118" t="s">
+      <c r="U164" s="101"/>
+      <c r="V164" s="101"/>
+      <c r="W164" s="102"/>
+      <c r="Y164" s="100" t="s">
         <v>120</v>
       </c>
-      <c r="Z164" s="119"/>
-      <c r="AA164" s="119"/>
-      <c r="AB164" s="120"/>
-      <c r="AE164" s="118" t="s">
+      <c r="Z164" s="101"/>
+      <c r="AA164" s="101"/>
+      <c r="AB164" s="102"/>
+      <c r="AE164" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="AF164" s="119"/>
-      <c r="AG164" s="119"/>
-      <c r="AH164" s="120"/>
+      <c r="AF164" s="101"/>
+      <c r="AG164" s="101"/>
+      <c r="AH164" s="102"/>
       <c r="AK164" s="21"/>
     </row>
     <row r="165" spans="3:37">
@@ -51231,18 +51233,18 @@
       <c r="I165" s="56"/>
       <c r="N165" s="21"/>
       <c r="O165" s="56"/>
-      <c r="T165" s="121"/>
-      <c r="U165" s="122"/>
-      <c r="V165" s="122"/>
-      <c r="W165" s="123"/>
-      <c r="Y165" s="121"/>
-      <c r="Z165" s="122"/>
-      <c r="AA165" s="122"/>
-      <c r="AB165" s="123"/>
-      <c r="AE165" s="121"/>
-      <c r="AF165" s="122"/>
-      <c r="AG165" s="122"/>
-      <c r="AH165" s="123"/>
+      <c r="T165" s="103"/>
+      <c r="U165" s="104"/>
+      <c r="V165" s="104"/>
+      <c r="W165" s="105"/>
+      <c r="Y165" s="103"/>
+      <c r="Z165" s="104"/>
+      <c r="AA165" s="104"/>
+      <c r="AB165" s="105"/>
+      <c r="AE165" s="103"/>
+      <c r="AF165" s="104"/>
+      <c r="AG165" s="104"/>
+      <c r="AH165" s="105"/>
       <c r="AK165" s="21"/>
     </row>
     <row r="166" spans="3:37">
@@ -51251,18 +51253,18 @@
       <c r="I166" s="56"/>
       <c r="N166" s="21"/>
       <c r="O166" s="56"/>
-      <c r="T166" s="121"/>
-      <c r="U166" s="122"/>
-      <c r="V166" s="122"/>
-      <c r="W166" s="123"/>
-      <c r="Y166" s="121"/>
-      <c r="Z166" s="122"/>
-      <c r="AA166" s="122"/>
-      <c r="AB166" s="123"/>
-      <c r="AE166" s="121"/>
-      <c r="AF166" s="122"/>
-      <c r="AG166" s="122"/>
-      <c r="AH166" s="123"/>
+      <c r="T166" s="103"/>
+      <c r="U166" s="104"/>
+      <c r="V166" s="104"/>
+      <c r="W166" s="105"/>
+      <c r="Y166" s="103"/>
+      <c r="Z166" s="104"/>
+      <c r="AA166" s="104"/>
+      <c r="AB166" s="105"/>
+      <c r="AE166" s="103"/>
+      <c r="AF166" s="104"/>
+      <c r="AG166" s="104"/>
+      <c r="AH166" s="105"/>
       <c r="AK166" s="21"/>
     </row>
     <row r="167" spans="3:37">
@@ -51271,18 +51273,18 @@
       <c r="I167" s="56"/>
       <c r="N167" s="21"/>
       <c r="O167" s="56"/>
-      <c r="T167" s="124"/>
-      <c r="U167" s="125"/>
-      <c r="V167" s="125"/>
-      <c r="W167" s="126"/>
-      <c r="Y167" s="124"/>
-      <c r="Z167" s="125"/>
-      <c r="AA167" s="125"/>
-      <c r="AB167" s="126"/>
-      <c r="AE167" s="124"/>
-      <c r="AF167" s="125"/>
-      <c r="AG167" s="125"/>
-      <c r="AH167" s="126"/>
+      <c r="T167" s="106"/>
+      <c r="U167" s="107"/>
+      <c r="V167" s="107"/>
+      <c r="W167" s="108"/>
+      <c r="Y167" s="106"/>
+      <c r="Z167" s="107"/>
+      <c r="AA167" s="107"/>
+      <c r="AB167" s="108"/>
+      <c r="AE167" s="106"/>
+      <c r="AF167" s="107"/>
+      <c r="AG167" s="107"/>
+      <c r="AH167" s="108"/>
       <c r="AK167" s="21"/>
     </row>
     <row r="168" spans="3:37">
@@ -51527,56 +51529,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="AE153:AH156"/>
-    <mergeCell ref="T164:W167"/>
-    <mergeCell ref="Y164:AB167"/>
-    <mergeCell ref="AE164:AH167"/>
-    <mergeCell ref="C173:F175"/>
-    <mergeCell ref="H173:K175"/>
-    <mergeCell ref="N173:Q175"/>
-    <mergeCell ref="Y173:AB175"/>
-    <mergeCell ref="T173:W175"/>
-    <mergeCell ref="AE173:AH175"/>
-    <mergeCell ref="Q141:T143"/>
-    <mergeCell ref="H147:K149"/>
-    <mergeCell ref="Y147:AB149"/>
-    <mergeCell ref="C153:F156"/>
-    <mergeCell ref="H153:K156"/>
-    <mergeCell ref="N153:Q156"/>
-    <mergeCell ref="T153:W156"/>
-    <mergeCell ref="Y153:AB156"/>
-    <mergeCell ref="AE113:AH116"/>
-    <mergeCell ref="T124:W127"/>
-    <mergeCell ref="Y124:AB127"/>
-    <mergeCell ref="AE124:AH127"/>
-    <mergeCell ref="Y133:AB135"/>
-    <mergeCell ref="T133:W135"/>
-    <mergeCell ref="AE133:AH135"/>
-    <mergeCell ref="T113:W116"/>
-    <mergeCell ref="Y113:AB116"/>
-    <mergeCell ref="I56:L58"/>
-    <mergeCell ref="Q101:T103"/>
-    <mergeCell ref="H107:K109"/>
-    <mergeCell ref="Y107:AB109"/>
-    <mergeCell ref="C56:F58"/>
-    <mergeCell ref="S93:V95"/>
-    <mergeCell ref="H84:K87"/>
-    <mergeCell ref="M84:P87"/>
-    <mergeCell ref="S84:V87"/>
-    <mergeCell ref="C93:F95"/>
-    <mergeCell ref="M93:P95"/>
-    <mergeCell ref="C133:F135"/>
-    <mergeCell ref="M64:P66"/>
-    <mergeCell ref="C70:F72"/>
-    <mergeCell ref="M70:P72"/>
-    <mergeCell ref="M76:P79"/>
-    <mergeCell ref="C113:F116"/>
-    <mergeCell ref="N113:Q116"/>
-    <mergeCell ref="H93:K95"/>
-    <mergeCell ref="C76:F79"/>
-    <mergeCell ref="N133:Q135"/>
-    <mergeCell ref="H113:K116"/>
-    <mergeCell ref="H133:K135"/>
     <mergeCell ref="C50:F52"/>
     <mergeCell ref="I50:L52"/>
     <mergeCell ref="F4:I6"/>
@@ -51590,6 +51542,56 @@
     <mergeCell ref="C36:F38"/>
     <mergeCell ref="I36:L38"/>
     <mergeCell ref="F44:I46"/>
+    <mergeCell ref="C133:F135"/>
+    <mergeCell ref="M64:P66"/>
+    <mergeCell ref="C70:F72"/>
+    <mergeCell ref="M70:P72"/>
+    <mergeCell ref="M76:P79"/>
+    <mergeCell ref="C113:F116"/>
+    <mergeCell ref="N113:Q116"/>
+    <mergeCell ref="H93:K95"/>
+    <mergeCell ref="C76:F79"/>
+    <mergeCell ref="N133:Q135"/>
+    <mergeCell ref="H113:K116"/>
+    <mergeCell ref="H133:K135"/>
+    <mergeCell ref="I56:L58"/>
+    <mergeCell ref="Q101:T103"/>
+    <mergeCell ref="H107:K109"/>
+    <mergeCell ref="Y107:AB109"/>
+    <mergeCell ref="C56:F58"/>
+    <mergeCell ref="S93:V95"/>
+    <mergeCell ref="H84:K87"/>
+    <mergeCell ref="M84:P87"/>
+    <mergeCell ref="S84:V87"/>
+    <mergeCell ref="C93:F95"/>
+    <mergeCell ref="M93:P95"/>
+    <mergeCell ref="AE113:AH116"/>
+    <mergeCell ref="T124:W127"/>
+    <mergeCell ref="Y124:AB127"/>
+    <mergeCell ref="AE124:AH127"/>
+    <mergeCell ref="Y133:AB135"/>
+    <mergeCell ref="T133:W135"/>
+    <mergeCell ref="AE133:AH135"/>
+    <mergeCell ref="T113:W116"/>
+    <mergeCell ref="Y113:AB116"/>
+    <mergeCell ref="Q141:T143"/>
+    <mergeCell ref="H147:K149"/>
+    <mergeCell ref="Y147:AB149"/>
+    <mergeCell ref="C153:F156"/>
+    <mergeCell ref="H153:K156"/>
+    <mergeCell ref="N153:Q156"/>
+    <mergeCell ref="T153:W156"/>
+    <mergeCell ref="Y153:AB156"/>
+    <mergeCell ref="AE153:AH156"/>
+    <mergeCell ref="T164:W167"/>
+    <mergeCell ref="Y164:AB167"/>
+    <mergeCell ref="AE164:AH167"/>
+    <mergeCell ref="C173:F175"/>
+    <mergeCell ref="H173:K175"/>
+    <mergeCell ref="N173:Q175"/>
+    <mergeCell ref="Y173:AB175"/>
+    <mergeCell ref="T173:W175"/>
+    <mergeCell ref="AE173:AH175"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -59936,13 +59938,13 @@
         <v>45</v>
       </c>
       <c r="G221" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="H221" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="H221" s="33" t="s">
+      <c r="I221" s="33" t="s">
         <v>197</v>
-      </c>
-      <c r="I221" s="33" t="s">
-        <v>198</v>
       </c>
       <c r="P221" s="31" t="s">
         <v>73</v>
@@ -60602,13 +60604,13 @@
         <v>45</v>
       </c>
       <c r="G237" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="H237" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="H237" s="33" t="s">
+      <c r="I237" s="33" t="s">
         <v>197</v>
-      </c>
-      <c r="I237" s="33" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="238" spans="3:22">
@@ -61792,13 +61794,13 @@
         <v>45</v>
       </c>
       <c r="G271" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="H271" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="H271" s="33" t="s">
+      <c r="I271" s="33" t="s">
         <v>197</v>
-      </c>
-      <c r="I271" s="33" t="s">
-        <v>198</v>
       </c>
       <c r="P271" s="31" t="s">
         <v>73</v>
@@ -62458,13 +62460,13 @@
         <v>45</v>
       </c>
       <c r="G287" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="H287" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="H287" s="33" t="s">
+      <c r="I287" s="33" t="s">
         <v>197</v>
-      </c>
-      <c r="I287" s="33" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="288" spans="3:22">
@@ -63648,13 +63650,13 @@
         <v>45</v>
       </c>
       <c r="G321" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="H321" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="H321" s="33" t="s">
+      <c r="I321" s="33" t="s">
         <v>197</v>
-      </c>
-      <c r="I321" s="33" t="s">
-        <v>198</v>
       </c>
       <c r="P321" s="31" t="s">
         <v>73</v>
@@ -64314,13 +64316,13 @@
         <v>45</v>
       </c>
       <c r="G337" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="H337" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="H337" s="33" t="s">
+      <c r="I337" s="33" t="s">
         <v>197</v>
-      </c>
-      <c r="I337" s="33" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="338" spans="3:9">
@@ -65504,13 +65506,13 @@
         <v>45</v>
       </c>
       <c r="G371" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="H371" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="H371" s="33" t="s">
+      <c r="I371" s="33" t="s">
         <v>197</v>
-      </c>
-      <c r="I371" s="33" t="s">
-        <v>198</v>
       </c>
       <c r="P371" s="31" t="s">
         <v>73</v>
@@ -66170,13 +66172,13 @@
         <v>45</v>
       </c>
       <c r="G387" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="H387" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="H387" s="33" t="s">
+      <c r="I387" s="33" t="s">
         <v>197</v>
-      </c>
-      <c r="I387" s="33" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="388" spans="3:9">
@@ -70476,7 +70478,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="38"/>
@@ -70491,22 +70493,22 @@
         <v>67</v>
       </c>
       <c r="C2" s="92" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="93" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="E2" s="92" t="s">
         <v>201</v>
       </c>
-      <c r="E2" s="92" t="s">
+      <c r="F2" s="93" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="93" t="s">
+      <c r="G2" s="92" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="92" t="s">
+      <c r="H2" s="93" t="s">
         <v>204</v>
-      </c>
-      <c r="H2" s="93" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.4" customHeight="1">
@@ -70695,7 +70697,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="B11" s="95" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C11" s="94">
         <f>AVERAGE(C3:C10)</f>
@@ -70727,27 +70729,27 @@
         <v>67</v>
       </c>
       <c r="C13" s="98" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" s="99" t="s">
         <v>208</v>
       </c>
-      <c r="D13" s="99" t="s">
+      <c r="E13" s="98" t="s">
         <v>209</v>
       </c>
-      <c r="E13" s="98" t="s">
+      <c r="F13" s="99" t="s">
         <v>210</v>
       </c>
-      <c r="F13" s="99" t="s">
+      <c r="G13" s="98" t="s">
         <v>211</v>
       </c>
-      <c r="G13" s="98" t="s">
+      <c r="H13" s="99" t="s">
         <v>212</v>
-      </c>
-      <c r="H13" s="99" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C14" s="96">
         <v>18.498581647872875</v>
@@ -70792,31 +70794,31 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="129" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C2" s="130"/>
       <c r="D2" s="97" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" s="97" t="s">
         <v>216</v>
       </c>
-      <c r="E2" s="97" t="s">
+      <c r="F2" s="97" t="s">
         <v>217</v>
       </c>
-      <c r="F2" s="97" t="s">
+      <c r="G2" s="97" t="s">
         <v>218</v>
       </c>
-      <c r="G2" s="97" t="s">
+      <c r="H2" s="97" t="s">
         <v>219</v>
       </c>
-      <c r="H2" s="97" t="s">
+      <c r="I2" s="97" t="s">
         <v>220</v>
-      </c>
-      <c r="I2" s="97" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="127" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C3" s="13">
         <v>1000</v>
